--- a/audio/zh/方案二/飯店QA/飯店QA.xlsx
+++ b/audio/zh/方案二/飯店QA/飯店QA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\peter\Desktop\audio_demo_project\audio\zh\方案二\飯店QA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BF10383-F880-418F-8DB4-B0E701483381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D21710C9-4451-4C6C-A7D3-A5AFEF49B839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -752,645 +752,650 @@
     <t>請問飯店有哪些設施可以讓我們使用呢?</t>
   </si>
   <si>
-    <t>您好！台南老爺行旅提供了多項設施給住客使用，包括一間輕型健身房，讓您在住宿期間可以保持身體健康；自助洗衣房，備有洗烘衣機，方便您處理衣物。此外，我們還有一間甘情商號設計產品店，提供各式生活用品及禮品。如果您想品嚐美味的餐點，我們的甘粹義式餐廳絕對是首選！若您需要放鬆身心，我們有提供120坪展覽空間，讓您可以盡情欣賞藝術作品。另外，如果您想享受咖啡時光，我們的回甘咖啡是個不錯的選擇。鄰近飯店也有多家機車行及YouBike站點供您使用。再者，與南紡購物中心地下停車場共用的免費停車政策，讓您的愛車有個安心的歇腳處。若您需要更詳盡的資訊或協助，歡迎洽詢櫃台，我們將竭誠為您服務。</t>
-  </si>
-  <si>
-    <t>有三溫暖游泳池 兒童遊戲室和健身房嗎?</t>
-  </si>
-  <si>
-    <t>您好，我是台南老爺行旅的禮賓人員，很高興為您服務！本飯店內確實設有健身房，提供免費使用，館內設施一應俱全。至於您詢問的三溫暖和游泳池，可惜的是本飯店並沒有提供這兩項設施。不過，我們有提供自助洗衣房，讓您能清洗衣物。如果您需要更進一步的協助或資訊，歡迎洽詢櫃台，由專人為您服務。此外，若您想了解附近的美食及景點，可以向櫃台詢問，我們會很樂意地為您推薦。鄰近的南紡購物中心內就有一間超商，非常方便。謝謝您的提問！</t>
-  </si>
-  <si>
-    <t>請問這裡有電動車充電站嗎?</t>
-  </si>
-  <si>
-    <t>您好，我是台南老爺行旅的智慧禮賓！您詢問是否有電動車充電站，建議可聯繫南紡購物中心停車場管理處（電話：+886-06-2366168）確認，因為我們飯店內並無直接提供電動車充電服務，但可以協助您找到相關資訊。此外，您知道本飯店附近設有戶外吸菸區供您使用。若您需要更進一步的協助或有其他需求，歡迎隨時洽詢櫃台，我將會很高興為您服務！</t>
-  </si>
-  <si>
     <t>請問這裡有KTV或麻將可以玩嗎?</t>
   </si>
   <si>
-    <t>您好！本飯店內確實設有KTV和麻將的娛樂設施，歡迎您多加利用。不過，如果需要使用，建議您先向櫃台洽詢開放時間及相關規則，以確保有愉快的體驗。此外，若您有其他需求或服務，我們的櫃台人員將很樂意為您提供協助。</t>
-  </si>
-  <si>
     <t>請問這裡有提款機嗎?</t>
   </si>
   <si>
-    <t>您好，我是台南老爺行旅的飯店禮賓！很高興為您服務。關於您的問題，我們飯店內並沒有設置提款機，不過鄰近的南紡購物中心內有多台提款機供您使用。如果您需要提款或有其他金融服務需求，可以步行至南紡購物中心內的銀行櫃台。此外，我可以協助您辦理入住手續、提供房間服務或為您介紹附近景點，還有什麼地方是我可以為您幫忙的嗎？</t>
-  </si>
-  <si>
     <t>請問這裡有起儀設備嗎?</t>
   </si>
   <si>
-    <t>您好，我是台南老爺行旅的禮賓人員，很高興為您服務！本飯店內確實設有起儀設備，如需使用，建議先與櫃台聯繫預約，以便我們為您準備所需的設施。若您有會議或活動的需求，我們將竭誠為您提供協助。</t>
-  </si>
-  <si>
-    <t>請問這裡有提供醫護送起服務嗎?</t>
-  </si>
-  <si>
-    <t>您好，我是台南老爺行旅的禮賓人員，很高興為您服務！本飯店並無提供直接的醫護送院服務，但若您或您的家人有緊急醫療需求，可以先與我聯繫，由我協助您聯絡鄰近的醫療院所或提供相關的急救建議。此外，您也可以向櫃台洽詢，他們可能能提供更進一步的協助或有其他替代解決方案。如果您需要任何幫助或有任何問題，請不吝告知，我將竭盡所能為您服務。</t>
-  </si>
-  <si>
-    <t>你們這裡有商務中心嗎?</t>
-  </si>
-  <si>
-    <t>不好意思，您的飯店並沒有專屬的商務中心，但我們可以為您提供會議室租借的服務，如果您需要一個小空間進行視訊會議或工作，可以向我們的櫃台洽詢相關細節和優惠。此外，附近也有多家咖啡廳和辦公空間可以供選擇。若有其他需求或疑問，歡迎隨時洽詢櫃台，我們將會竭誠為您服務。</t>
-  </si>
-  <si>
-    <t>大廳裡有廁所嗎?</t>
-  </si>
-  <si>
-    <t>您好！我是台南老爺行旅的飯店禮賓，很高興為您服務。在我們的飯店大廳內，的確設有一間乾淨舒適的廁所，提供賓客使用。若您需要找洗手間或有任何其他需求，歡迎隨時告訴我，我將非常樂意協助您。</t>
-  </si>
-  <si>
-    <t>請問健身房和洗衣房在哪裡?還有</t>
-  </si>
-  <si>
-    <t>您好，我是台南老爺行旅的飯店禮賓！很高興為您服務。關於您的問題，我們的健身房及洗衣房都位於本館內的指定樓層，如果您需要使用或指引，歡迎請向櫃台洽詢，我們將會提供最直接且詳盡的協助。此外，各客房樓層設有飲水機供您取用。若您有任何其他需求或疑問，請不吝告知，我將竭誠為您服務。</t>
-  </si>
-  <si>
-    <t>問回乾咖啡的營業時間是什麼呢?</t>
-  </si>
-  <si>
-    <t>您好，我很高興為您推薦幾間附近的餐廳！離台南老爺行旅約1.2公里的街役場古蹟餐坊，營業時間是週二至週日11:00-21:30，週一休息。如果您想在傍晚時段用餐，街役場古蹟餐坊是不錯的選擇。此外，我還想介紹窄門咖啡館，雖然距離較遠約1.8公里，但它自1991年開業，以獨特入口和復古懷舊氛圍吸引顧客，值得一訪。若您時間允許，可考慮前往品嘗窄門特調冰咖啡等美味。</t>
-  </si>
-  <si>
-    <t>請問南...</t>
-  </si>
-  <si>
-    <t>您好，我是台南老爺行旅的飯店禮賓，很高興為您服務！我可以為您提供各種協助，從幫您叫外送到解答任何關於飯店或台南當地的問題。如果您需要幫忙，請不要猶豫，直接告訴我有什麼需要我協助的地方。我們的櫃台也非常樂意為您提供支援與服務。</t>
-  </si>
-  <si>
     <t>請問房間有浴缸嗎?</t>
   </si>
   <si>
-    <t>您好，我是台南老爺行旅的飯店禮賓！我們的部分房型，像是品味套房和老爺套房，特別規劃了舒適的浴缸供房客使用。不過，也要提醒您，並非所有房型都設有浴缸，建議您在入住前先確認您的房型細節或與我們直接聯繫，以獲得最準確的資訊。若有任何問題或需求，歡迎隨時洽詢櫃台，由專人為您提供協助和說明。</t>
-  </si>
-  <si>
-    <t>請問房間床上方的那個黑色木櫃是</t>
-  </si>
-  <si>
-    <t>您好，我可以為您服務囉！我注意到您對房間內的黑色木櫃很有興趣，這可能是設計裝飾或收納空間的一部分，提供了額外的收納功能，讓您的住宿空間更舒適、更有組織。若您有任何問題或需要協助，請別猶豫，直接與櫃台洽詢，我將會為您提供最貼心的服務。</t>
-  </si>
-  <si>
-    <t>如果枕頭太硬或太軟的話呢</t>
-  </si>
-  <si>
-    <t>您好，我是台南老爺行旅的飯店禮賓！若您發現枕頭不夠舒適，太硬或太軟，歡迎至櫃台洽詢更換符合您的喜好枕頭，我們提供多款枕頭供選擇，讓您找到最適合的。是否需要協助換房或是有其他需求，也請告知我們，我們將會盡力為您服務。</t>
-  </si>
-  <si>
     <t>請問這裡有沒有免治馬桶呢?</t>
   </si>
   <si>
-    <t>您好！台南老爺行旅的設施中，全館都配有免治馬桶，所以不用擔心，在飯店內各個房間都可以找到免治馬桶的設備。</t>
-  </si>
-  <si>
     <t>請問這個地方有窗戶對外嗎?</t>
   </si>
   <si>
-    <t>您好，我是台南老爺行旅的飯店禮賓，很高興為您服務！全館客房都擁有大片對外窗，讓您可以盡情享受自然光線和室外美景。如果您需要任何協助或有任何問題，請別猶豫，直接洽詢櫃台或我將會非常樂意為您提供支援。</t>
-  </si>
-  <si>
-    <t>請問客房的電視可以看</t>
-  </si>
-  <si>
-    <t>您好，我是台南老爺行旅的飯店禮賓！很高興為您服務。關於您的問題，我們的客房電視支援部分平台，但建議在入住前先詢問我們櫃台人員，以確認您的房型是否有提供這些服務，這樣我們就能為您提供最完整的資訊。不過，基本上您可以收看到一些免費的台劇、電影和當地頻道，至於像NETFLIX、Disney+等串流媒體服務，可能需要視您的房型而定，或是透過飯店的Wi-Fi連上相關APP，但也請先向我們確認是否支援。若有任何問題或需協助，歡迎隨時洽詢櫃台，我們將會很樂意為您提供幫助。</t>
-  </si>
-  <si>
     <t>請問我的房卡無法使用這是怎麼回事呢?</t>
   </si>
   <si>
-    <t>您的房卡可能因感應次數不足、卡片本身問題或系統設定異常等因素導致無法使用，建議您立即聯繫飯店櫃台尋求協助，由專業的服務人員為您解決房卡無法使用的問題。或者，您可以嘗試將房卡至櫃檯更換新卡或重新啟用。若您有任何疑問或需要進一步協助，請不吝洽詢櫃台，我們將竭誠為您服務。</t>
-  </si>
-  <si>
-    <t>家庭房可以加床嗎?</t>
-  </si>
-  <si>
-    <t>您好，我是台南老爺行旅的飯店禮賓！您詢問的有關於加床事宜，我們的政策是：可加床，但需要提前預約，且數量有限，建議您儘早告知以免向隅。若有其他需求或疑問，歡迎隨時洽詢櫃台，由專人為您提供協助與安排。</t>
-  </si>
-  <si>
-    <t>早餐通常在哪裡享用呢?</t>
-  </si>
-  <si>
-    <t>您好，我很高興為您推薦幾間鄰近的餐廳！卓仔麵店約500公尺，提供手工現作的麵條和多款風味麵食，必點招牌的紅燒牛肉麵和榨菜麵。西羅殿牛肉湯約1000公尺，以新鮮台灣溫體牛肉和自製強力椒聞名，必嚐的招牌菜色包括牛肉湯和綜合湯。若您在附近活動，可以考慮先到卓仔麵店享用早餐，體驗道地台南味。</t>
-  </si>
-  <si>
-    <t>你們早餐是在什麼樓層提供的?</t>
-  </si>
-  <si>
-    <t>您好，我為您推薦幾間鄰近台南老爺行旅的美味餐廳：卓仔麵店，約500公尺，以每日手工現作的麵條聞名，提供多款風味獨特的麵食；西羅殿牛肉湯，約1000公尺，主打新鮮台灣溫體牛肉與自製強力椒的鮮美湯頭。若您早上餓了，可以考慮在營業時間內前往卓仔麵店或西羅殿牛肉湯，享用美味的早餐或早午餐。</t>
-  </si>
-  <si>
-    <t>那裡有可以是</t>
-  </si>
-  <si>
-    <t>您好，我是台南老爺行旅的智慧禮賓！很高興為您服務。我們飯店擁有許多設施，包括5樓的甘粹餐廳和廿一酒吧，以及6樓的甘願健身房和補給站。如果您需要協助或有任何問題，請不吝洽詢櫃台，我將會竭誠為您服務。不過，想提醒您，若有特殊需求或請求，建議事先預約以方便安排。謝謝！</t>
-  </si>
-  <si>
-    <t>請問現場的</t>
-  </si>
-  <si>
-    <t>您好，我是台南老爺行旅的智慧禮賓 AI，很高興為您服務！我可以為您提供飯店設施和活動的資訊，或是協助解決任何疑問。您有什麼需要幫忙的地方嗎？我們的會議/宴會廳可供租用，並設有臨時舞台，若需使用請務必事先預約。此外，我們也提供音響設備給來現場表演的樂團，同樣需事前預約。如果您想瞭解更多或有其他需求，歡迎隨時洽詢櫃台，我將會竭誠為您服務。</t>
-  </si>
-  <si>
-    <t>請問在餐廳舉辦活動?</t>
-  </si>
-  <si>
-    <t>您好，我幫你推薦幾間附近的餐廳，卓仔麵店是個好選擇，以每日手工現作的麵條聞名，提供多款風味獨特的麵食，距離我約500公尺。西羅殿牛肉湯則是一家米其林必比登推薦的老字號牛肉湯店，主打新鮮台灣溫體牛肉與自製強力椒，湯頭鮮美，約1000公尺遠。若你想吃道地台南小吃，可以考慮黃家蝦捲，這家傳承五十年的老店以酥脆蝦捲和清爽魚丸脆肉湯聞名，約1.0公里遠。建議提前預約或致電洽詢，以避免排隊等候。</t>
-  </si>
-  <si>
     <t>請問會議室最多可以擺幾張桌子呢?</t>
   </si>
   <si>
-    <t>您好，我是台南老爺行旅的飯店禮賓，很高興為您服務！本飯店的會議室可依桌型彈性調整，最多可容納120人。圓桌型約可容納8-10桌（每桌10人），而教室型、U型、分組型等桌型則可視需求調整。若您有會議或活動需求，歡迎洽詢專人協助規劃，我們將提供最合適的安排。</t>
-  </si>
-  <si>
-    <t>請問 匯醫師</t>
-  </si>
-  <si>
-    <t>您好，我是台南老爺行旅的飯店禮賓！很高興為您服務。我們的飯店鄰近南紡購物中心，距離奇美博物館約8公里，距離台南花園夜市約5公里。如果您有任何需求或疑問，請別猶豫，直接洽詢櫃台將會有專人協助您。不過，在此提醒您，我們的飯店設有戶外吸菸區供吸菸者使用，但不開放寵物入住，僅例外允許導盲犬。若您有其他問題或需要特定服務，請告知我，我將盡力為您解答。此外，如果您有任何演出或活動需求，我們可提供音響設備支援，建議先與櫃台預約以方便安排。您可以從官網或現場取得我們的菜單參考，方便您規劃用餐時間。謝謝您的光臨！</t>
-  </si>
-  <si>
-    <t>請問會議室</t>
-  </si>
-  <si>
-    <t>您好，我是台南老爺行旅的飯店禮賓！很高興為您服務。我們的會議室提供多元桌型，包括U型、教室型和劇院型，可依您的需求調整。最多可容納120人，不論是圓桌型或其他桌型都可以彈性安排。如果需要協助規劃或有任何會議相關問題，歡迎洽詢我，將會竭誠為您服務。不過，我要提醒您，我們並不提供專屬的商務中心，但可以協助您預約會議室進行視訊會議。此外，在本飯店內也設有戶外吸菸區供您使用。若您有任何需求或疑問，請不吝與我聯繫！</t>
-  </si>
-  <si>
-    <t>還擺幾張桌子呢?</t>
-  </si>
-  <si>
-    <t>您好，我是台南老爺行旅的飯店禮賓！我可以為您協助安排會議室或提供相關服務。不過，想請教您，需要多少桌數或有其他特定需求嗎？讓我了解您的需要後，能為您提供更適切的協助。或者，您也可以直接洽詢櫃台由專人為您規劃。</t>
-  </si>
-  <si>
-    <t>跟這家飯店有合作的停車場嗎?停車方式是怎麼樣的呢?</t>
-  </si>
-  <si>
-    <t>您好，我是台南老爺行旅的禮賓人員，很高興為您服務！本飯店與南紡購物中心地下停車場有合作，提供免費停車服務給住客，消費可享折抵優惠。不過，如果您需要搭乘高鐵或火車，建議可以搭乘高鐵快捷公車或計程車較為方便。此外，附近也有多家停車場和YouBike站點供選擇。若您需要代叫計程車，我們也可以協助安排，但請注意刷卡的規定依車行而定。歡迎您多加利用飯店的服務，若有任何問題都歡迎洽詢櫃台，我將很樂意為您提供協助。</t>
-  </si>
-  <si>
-    <t>請問要怎樣才能找到停車場的入口?</t>
-  </si>
-  <si>
-    <t>您可以依循飯店指引的指示牌或直接進入南紡購物中心A1館，依指示牌指示就能輕鬆找到地下停車場的入口。若您在假日或尖峰時段遇到停車不便，建議可將車輛停放至東寧特約停車場、南紡購物中心室內立體停車場，或新凱旋特約停車場（上述停車場開放時間及步行距離請參見先前提供的資訊）。如需進一步協助或有其他問題，歡迎洽詢飯店櫃台，由專人為您服務。</t>
-  </si>
-  <si>
-    <t>請問如果遇到</t>
-  </si>
-  <si>
-    <t>您好，我是台南老爺行旅的智慧禮賓 AI，很高興為您服務！我可以為您提供飯店的各項資訊和協助，從入住手續到當地景點介紹，以及其他您可能需要的服務。若您有任何問題或需求，請別猶豫詢問，我將竭盡所能提供幫助。是否有什麼地方是我可以幫忙的呢？</t>
-  </si>
-  <si>
-    <t>請問停車場的繳費機一直顯示我還需要繳費?這是...</t>
-  </si>
-  <si>
-    <t>您好，我可以協助解決您的困擾！可能是停車票卡未經正確處理，導致繳費機持續顯示需繳費的訊息。建議您將停車票卡至本飯店櫃台進行消磁即可排除問題。若仍有任何疑問或需進一步協助，歡迎隨時洽詢櫃台，由專人為您服務。</t>
-  </si>
-  <si>
-    <t>飯店有提供</t>
-  </si>
-  <si>
-    <t>您好，我是台南老爺行旅的智慧禮賓！很高興為您服務。我們的飯店內有提供多項設施，包括一個小型健身房、自助洗衣房，讓您能在住宿期間維持運動習慣和處理個人衣物。此外，還有一間甘情商號設計產品店，可以讓您選購一些特別的紀念品。如果您餓了或想品嚐當地美食，我們的甘粹義式餐廳提供各式義大利菜，而廿一酒吧則是享受小酌的好去處。若您有藝術細胞，可以到120坪展覽空間欣賞藝文創作。不過，我要提醒您，飯店內並不設有三溫暖、游泳池、兒童遊戲室、KTV或麻將設施。 如果您有外送需求，我們可以代為代收，但請先通知我們的櫃台。 在飯店附近，有個南紡購物中心，裡面有超商可以滿足您的購物需求。 鄰近飯店的美食和景點相當多，包括多家小吃和景點。 若是您有生日願望，我們也有特別的生日餐飲優惠，歡迎您洽詢餐廳或官網得知詳情。 另外，由於飯店與南紡購物中心地下停車場共用，住客可以享有免費停車的優惠。 希望以上資訊能對您有所幫助！若您需要任何協助或有其他問題，請不吝洽詢櫃台，我將會很樂意為您服務。</t>
-  </si>
-  <si>
     <t>請問飯店有提供高鐵或火車站的接駁車嗎?我該怎麼搭乘呢?</t>
   </si>
   <si>
-    <t>您好，我是台南老爺行旅的禮賓人員，很高興為您服務！本飯店雖然沒有直接提供高鐵或火車站的接駁車，但鄰近的南紡購物中心地下停車場與我們共用，可以免費停車。若要前往高鐵站或火車站，建議可搭乘快捷公車約20分鐘即可抵達，或選擇搭乘計程車也相當方便，費用大約在200至250元之間。若您需要協助代叫計程車，請撥打飯店櫃台電話，我們將會為您安排並提供刷卡服務，依車行規定辦理。歡迎您多加利用！</t>
-  </si>
-  <si>
-    <t>飯店附近有U-bike 可以租借嗎? 還有租機車的地方嗎?</t>
-  </si>
-  <si>
-    <t>您好，我為您推薦幾間鄰近餐廳，距離飯店約3.4公里的阿霞飯店，是一家歷史悠久的台南老字號餐廳，以獨特台菜風味和優質服務聞名。招牌菜「紅蟳米糕」是必點推薦，建議提前訂位，以免排隊等候。若您有騎乘需求，附近確實有U-bike 站點可供租借，至於租機車的地方，也有多家機車行可以選擇。不過，我更想向您推薦距離飯店約4.0公里的新營李家宇航牛肉湯，提供多樣化的牛肉湯品與風味菜，值得一試。</t>
-  </si>
-  <si>
     <t>請問飯店附近有U-bike 可以租借嗎?還有租機車的地方嗎?</t>
   </si>
   <si>
-    <t>您好，我為您推薦幾間鄰近飯店的餐廳，距離飯店約3.4公里的阿霞飯店，是一家歷史悠久的台南老字號餐廳，以獨特的台菜風味和優質服務聞名。除了品嚐美食外，您也可以在距離飯店約1.5公里處找到U-bike 站點，方便租借自行車。至於租機車的地方，也有多家機車行靠近飯店，提供多元的交通選擇。建議提前訂位阿霞飯店，以免錯過美味。</t>
-  </si>
-  <si>
-    <t>請問我到餐廳用餐的時候 車子應該停在哪裡呢?附近有合作的停車場嗎?</t>
-  </si>
-  <si>
-    <t>您好，我為你推薦幾間附近的餐廳，距離約500公尺的卓仔麵店以每日手工現作的麵條聞名，提供多款風味獨特的麵食。鄰近西羅殿牛肉湯，約1000公尺，主打新鮮台灣溫體牛肉與自製強力椒。若有開車，建議可停在南紡購物中心停車場，消費可享折抵優惠。與南紡購物中心地下停車場共用的停車場是供住客免費停車的專用停車場。</t>
-  </si>
-  <si>
-    <t>問從南訪怎麼去餐廳呢?</t>
-  </si>
-  <si>
-    <t>您好，我幫你推薦幾間附近的餐廳！卓仔麵店約500公尺，以手工現作的麵條聞名，必吃的有紅燒牛肉麵和榨菜麵。西羅殿牛肉湯約1000公尺，是家老字號的台南牛肉湯店，主打新鮮台灣溫體牛肉，自製強力椒提升湯頭風味。若想換個口味，黃家蝦捲約1.0公里，是傳承五十年的經典小吃店，以酥脆蝦捲和清爽魚丸脆肉湯聞名。建議提前預訂以避免排隊。</t>
-  </si>
-  <si>
     <t>請問從飯店到高鐵站要怎麼走呢?</t>
   </si>
   <si>
-    <t>您可以搭乘快捷公車或計程車，約20分鐘就能抵達高鐵站，或是至台南火車站再轉乘區間車至沙崙火車站，然後轉搭公車或計程車回飯店，不過以搭公車或計程車直接前往最快。若有需要，建議可洽詢櫃台協助提供更詳細的路線資訊或建議。</t>
-  </si>
-  <si>
-    <t>請問我該怎麼去南方購物中心?</t>
-  </si>
-  <si>
-    <t>您可以從飯店的連通門步行至南紡購物中心，大約需要5-10分鐘的時間，或是搭乘電梯直接到達，非常方便。若您有其他交通工具或行程規劃，也歡迎隨時洽詢櫃台，我們將會提供最即時且貼心的協助。</t>
-  </si>
-  <si>
     <t>請問這裡有吸煙區嗎?</t>
   </si>
   <si>
-    <t>您好！我可以為您服務。台南老爺行旅的戶外空間設有吸菸區，如果需要吸菸，歡迎到我們的戶外吸菸區，非常感謝您的詢問。不過，我想先向您確認一下，是否還有其他地方需要協助或服務呢？或者是有任何其他問題要詢問嗎？我很樂意為您提供更多幫助。</t>
-  </si>
-  <si>
-    <t>這裡有吸煙區嗎?</t>
-  </si>
-  <si>
-    <t>您好，我是台南老爺行旅的飯店禮賓！很高興為您服務。我們飯店設有戶外吸菸區，如果您需要吸菸，可以到室外的吸菸區進行。此外，大廳內也設有廁所，非常方便。不過，如果您需要一個小空間進行視訊會議或商務活動，建議可以洽詢我們的會議室租借，這會是個不錯的選擇。至於展覽部分，部分內容對外開放，但詳細情況請您直接向櫃台詢問以獲得最新資訊。另外，我要提醒您，飯店內目前並無寵物友善設施，如果有攜帶寵物同行，可能需要另行安排。如需進一步協助或有任何需求，歡迎洽詢櫃台，由我們的服務人員為您提供更詳盡的支援與服務。</t>
-  </si>
-  <si>
-    <t>請問附近有沒有便利商店呢?請問附近有沒有便利商店呢?</t>
-  </si>
-  <si>
-    <t>您好！我是台南老爺行旅的飯店禮賓，很高興為您服務！在我們飯店附近，有一間南紡購物中心，它非常靠近我們飯店，裡面就有超商可以滿足您的購物和需求。除了購物中心內的超商外，周邊也有多家便利超商及小吃美食，交通上也相當便利，離市區很近。如果您需要找地方買東西或吃東西，這裡都是不錯的選擇。此外，若您有其他問題或需要協助，歡迎隨時洽詢櫃台，我將會非常樂意為您服務！</t>
-  </si>
-  <si>
     <t>請問附近有沒有便利商店呢?</t>
   </si>
   <si>
-    <t>您好！我是台南老爺行旅的飯店禮賓，很高興為你服務。在我們旅館周圍，有一間南紡購物中心，它裡面有超商可以滿足您的需求。此外，在附近也有多家小吃和景點，如國華街、赤崁樓等都是很受歡迎的地方，距離我們旅館步行約10-15分鐘即可到達。在您休息或外出時，不知道是否需要</t>
-  </si>
-  <si>
     <t>請問最近的夜市在哪裡呢?</t>
   </si>
   <si>
-    <t>您好！我是台南老爺行旅的禮賓，這裡有幾個離飯店很近、非常有名且熱鬧非凡的夜市，您可以考慮造訪：大東市（最近）、大東這家也在附近，大東興跟武聖街上的兩間，還有離我們飯店不遠、很有名氣且人潮眾多的花園夜市。這些都是台南當地非常受歡迎又好吃</t>
-  </si>
-  <si>
     <t>請問飯店的逃生路線在哪裡呢?我可以走樓梯到五樓餐廳嗎?</t>
   </si>
   <si>
-    <t>您好，我是台南老爺行旅的智慧禮賓，為確保您的安全與方便，在飯店內有明確標示逃生指示圖，您可依循這些圖示找到最近且最短的避難路線。至於走樓梯到五樓餐廳，這是可行但建議您先確認電梯和消防設施是否正常運作，同時留意逃生指示圖上的指引，以確保安全無虞。在此提醒，您可以使用手</t>
-  </si>
-  <si>
     <t>我想請問一下 房間的清潔度似乎不太好 能幫我解決這個問題嗎?</t>
   </si>
   <si>
-    <t>您所提及的客房清潔品質不佳，非常抱歉聽到這樣。若您的房內有出現異味或環境不乾淨等情形，我可以立即為你處理並協助換房至另一間房間，以確保您有一個舒適的住宿體驗。在更換前，我們也會先請櫃台加強對原客房之清潔作業。若有其他需求或問題，也歡迎隨時告知我，我將盡力為你提供協助與解決方案，以確保您的住宿期間一切舒適愉快！</t>
-  </si>
-  <si>
-    <t>請問如果客房有意外或不夠乾淨的問題 我可以退房嗎?還有如果房間太小的話也能進行調換嗎?謝謝</t>
-  </si>
-  <si>
-    <t>您好，我是台南老爺行旅的飯店禮賓！若您的客房出現意外或不夠乾淨，非常抱歉，這可能會影響住宿品質。如果情況嚴重到無法接受，您可以向櫃台反映，由我們協助處理並視狀況提供換房或是全額退費的解決方案。但若僅為輕微問題，則需由您決定是否要求更換房間。至於調換較小間數客房的話，我可以代為詢問櫃台協助處理，但實際結果仍視當天房況而定。我將立即為你轉接與櫃檯的聯繫，請您稍等片刻。</t>
-  </si>
-  <si>
     <t>請問一下 房間裡面怎麼黏網呢?</t>
   </si>
   <si>
-    <t>抱歉，貴客！我是台南老爺行旅的智慧禮賓，我要告訴您，全館有提供免費使用全室式免治馬桶及乾濕分離淋浴間等設施，但有關黏網這件事，可能不是我們飯店所負責範圍。不過，您可以直接向櫃台詢問或洽詢清潔人員是否有提供此項服務或是建議如何處理較好，我會盡力協助您找到解決方法，但請先與我們的櫃檯接洽，讓他們為你安排最合適的方案。</t>
-  </si>
-  <si>
     <t>您好 我注意到我的客房裡有些異味 請問能否幫我解決這個問題呢?謝謝</t>
   </si>
   <si>
-    <t>"抱歉聽到您的困擾！為確保住宿品質，我們會立即派員協助處理。請您稍後在客房內等候，我將派專人到房裡進行徹底的清潔和消毒，並提供一組空氣清新劑給你，以幫助消除異味，讓您的住宿環境更舒適。若有任何問題或需求，也請您隨時告訴我，我會盡力為您解決."</t>
-  </si>
-  <si>
-    <t>請問你們有提供嬰兒用品嗎? 比如嬰兒床、澡盆、窗房和小谷渡鍋等。還有一次性備品也有提供的嗎?謝謝!</t>
-  </si>
-  <si>
-    <t>您好，我是台南老爺行旅，為方便家長們準備嬰兒用品，本飯店免費提供包括：無瓷耐摔碗、濕巾及尿布等基本備品，但數量有限請事先預約。至於一次性或其他特定的嬰童用品，建議您洽詢櫃台詢問是否有提供或是可代訂；距離飯店約4.2公里處，有一間無患子生技開發有限公司，是天然清潔及個人護理產品的好選擇。此外，推薦您在步行大約1000公尺外、位於西羅殿牛肉湯附近的一家無名切仔麵，這間店所提供的湯頭是用大骨和牛血熬製而成，非常美味。對於牛肉爐</t>
-  </si>
-  <si>
     <t>請問貝平可以免費拿嗎?</t>
   </si>
   <si>
-    <t>抱歉，我無法提供或確認特定物品的可取得性，尤其是「備品」一詞在此情境下不夠明確。不過我可以推薦你幾間台南在地美食：安平阿水伯手工包子以傳統手法製作的Q彈包皮和豐富內餡，值得一試；同記安平豆花擁有超過30年的歷史，以綿密口感及多樣口味深受喜愛。若你有興趣於當地美食或想瞭解更多店家資訊，我建議洽詢櫃台尋求協助，他們能提供更詳盡的情報和支援。
-距離部分，因先前未明確收到相關問題與所在地點之描述。若你有特定地點或路線想探索，我將盡量以當地美食為導向，提供更適切的建議</t>
-  </si>
-  <si>
     <t>請問如果客房清潔的不夠乾淨 我應該通知誰來處理呢?</t>
   </si>
   <si>
-    <t>您好，如發現您的房間有任何問題，包括房內環境或服務上需要改善之處，都可以立即聯繫我們的櫃台。他們將會非常樂意協助處理客房清潔、修繕等事宜，以確保您在飯店住宿期間享有舒適愉快的體驗，請放心直接與櫃檯聯絡或告知房號讓我們知道！</t>
-  </si>
-  <si>
     <t>請問客房裡沒有礦泉水 我該怎麼解決喝水的問題呢?</t>
   </si>
   <si>
-    <t>您好，很高興為你推薦幾間附近餐廳！距離本飯店約500公尺有個卓仔麵店，以每日手工現作麵條聞名，我特別喜歡他們的紅燒牛肉麵和榨菜麵。此外，西羅殿牛肉湯也是必訪之地，它是米其林推薦店家之一，用自製強力椒提升湯頭風味；或是走約1.0公里到黃家蝦捲，這間傳承五十年的台南小吃以酥脆的蝦卷和清爽魚丸脆肉湯而聞名。建議提前預約或提早出發，以免排隊等候！</t>
-  </si>
-  <si>
-    <t>您好,我能請你幫我送六瓶礦泉水到我的房間嗎?謝謝。</t>
-  </si>
-  <si>
-    <t>"非常樂意為您服務！如果需要6瓶礦泉水，建議可以致電櫃台洽詢協助，由我們的工作人員幫你將礦泉水送到您的房間，您也可提前告知以方便安排。"</t>
-  </si>
-  <si>
-    <t>請問你們的館內有提供健身服、胖服等設施嗎?</t>
-  </si>
-  <si>
-    <t>您好！本飯店為體貼入住貴賓，特別於館內設置了免費使用的自助洗衣房和輕型健身房。不過，並沒有直接提供健身服或胖衣供借用，但可以在鄰近區域找到相關設施租借或可自行購買。在此建議您可向本飯店櫃台洽詢，將會有專人為你提供有關館內各項服務及附近資源的詳細資訊。若需協助或解決任何問題時，也歡迎直接到櫃檯詢問，我和團隊都很樂意幫您解答！</t>
-  </si>
-  <si>
-    <t>請問我可以在中午的時候先入住嗎?</t>
-  </si>
-  <si>
-    <t>您好，我是台南老爺行旅的飯店禮賓，非常歡迎您的蒞臨！關於提前於午間時段辦理入房手續，您可能需要視當日房間狀況而定。若有空餘房型且您能接受相應加價的話，是可以在中午的時候先入住，不過建議請直接洽詢櫃台以獲得最即時和準確的資訊並確認是否需加收費用。</t>
-  </si>
-  <si>
-    <t>請問如果我提前抵達的話可以把行李寄放在這裡嗎?另外退房的時候也可以一起寄放行李嗎?謝謝</t>
-  </si>
-  <si>
-    <t>您好！我們非常歡迎您的蒞臨。關於行李寄存，提前抵達時，您是可以將行李免費寄放在本飯店的，但請注意須向櫃台登記以便後續取件。在退房當天，也同樣開放寄放服務，可於當日下午4點前由櫃檯辦理，方便您在離開時帶走行李。不過，要提醒一下，您的房卡需正常歸還並完成所有手續後才可放行李寄存服務。在寄放期間若有任何問題或需要協助，歡迎隨時洽詢櫃台，由我們竭誠為您提供幫助。</t>
-  </si>
-  <si>
-    <t>請問我可以延遲退房嗎?這樣會有什麼額外的費用呢?如果我想再多住一晚,價格大概是多少呢?</t>
-  </si>
-  <si>
-    <t>您好，我能理解您的需求。延遲退房需視房況而定，可能會加收費用，這項收費將依飯店的規定辦理。在正常情況下，一晚房價約在新台幣2,500元到3萬5千之間。若您想再多住一晚，價格會因當日不同房型及房況而定，但以相同的房間為例，一個晚上約在新台幣2,500元到3萬5千之間。不過，我需要向櫃台確認最新安排，建議您直接洽詢櫃檯人員將會得到最新且最為準確的資訊。我可以協助你與客服聯絡或提供其他幫助，但為確保您的權益和房況，我還是要提醒請向櫃台確認延遲退房及</t>
-  </si>
-  <si>
     <t>你好 我想了解一下有沒有可能提早入住或較晚入住的選項呢?另外是否可以延遲退房呢?還有收費的方式是怎麼樣的呢?謝謝</t>
   </si>
   <si>
-    <t>您好，台南老爺行旅附近有一家「福泰飯桌」，距離約3.0公里，是體驗道地台菜的絕佳選擇。建議平日上午10點半前到訪可避開人潮。在不遠處，還有另一間擁有60年歷史「滋養軒」，距離約4.7公里，以招牌鳳梨酥和鹽味拉麵聞名。若您想品嚐異國料理，可考慮繆思義式餐坊，環境溫馨舒適，但請注意營業時間為週一至週日11:30-14:00、17:00-21:00。至於入住和退房的問題，因系統權限有限，我建議您直接洽詢櫃台，他們會提供最完整且即時的協助與收費資訊。
-(續住價格</t>
-  </si>
-  <si>
     <t>請問你們這裡有提供休息的服務嗎?</t>
   </si>
   <si>
-    <t>您好，我是台南老爺行旅的智慧禮賓，很高興為你接待！不過要告訴你，本飯店並無設置可供短暫歇息或短時間內就離開之設施，但我們可以建議鄰近一些不錯的休憩點給你。若需要臨時住宿或是有其他需求，可洽詢櫃台由專人協助處理，有提供更完善的服務與支援。在此，如果您正需休息，我能為您推薦附近幾個安靜且舒適的小公園供短暫歇息，您可自行前往利用；此外，也可以考慮使用我們飯店內所設置之免費Wi-Fi及自助式咖啡吧作為暫時休憩空間。希望這樣對你有幫助！</t>
-  </si>
-  <si>
     <t>請問我可以稍微延遲退房時間嗎?</t>
   </si>
   <si>
-    <t>您想延後退是正常的事，但需要視當時房間狀況而定，並可能加收費用。在飯店規定中，最遲應於11點前完成辦理，也就是一般所稱的「標準」退房時間點。但若有特殊情況，可洽櫃檯人員協商彈性延時與收費事宜，以避免影響您的行程和方便作業流程。</t>
-  </si>
-  <si>
     <t>請問帶小孩入住的話需要額外付費嗎?</t>
   </si>
   <si>
-    <t>您好！本飯店針對5歲以下孩童享有免費優待，不佔床即可免加費用。但若您的孩子超過五歲且又有一位以上成員，或須佔用兩張床位時，就會加收費。在預訂前建議先向我們確認相關規定，以確保順利完成訂房手續。
-(如果想知道更多詳情或是希望獲得最即時的優惠與資訊，可致電客服中心：06-2221111轉9或親臨現場櫃檯諮詢)</t>
-  </si>
-  <si>
-    <t>請問台南老爺酒店有什麼最優惠的訂房房式呢? 房價大概是多少?</t>
-  </si>
-  <si>
-    <t>您可於「台南老爺行旅」官方網站查詢最優惠住房專案，或電洽飯店客服詢問最新優惠價格及房型，最低雙人房價約NT$3,000起，但實際價格依現場公告為主。
-(若語音輸入誤)，合理推斷：可能指的是官網上所見之特惠方案，如雙人入住、平日或特定日等條件下的折扣，建議直接參考官網資訊為准。
-由於未明確提及其他細節（如住宿天數），因此以上回應將以基本原則進行說明，並提醒最佳方式仍應查閱該店線上公布內容為準，以獲得即時且正確訊息。</t>
-  </si>
-  <si>
-    <t>請問哪種房型是有浴缸的呢?</t>
-  </si>
-  <si>
-    <t>您好！本飯店提供「風味客房」、「家庭雅房」，以及部份「尊爵家庭房」的房型設有獨立浴缽，您可依喜好選擇入住上述任一種類型房間中，有著舒適放鬆享受空間。在此提醒：各項住房優惠及細節仍由櫃檯人員為您的說明為主。
-(若用戶想更了解特定資訊，可向台南老爺行旅客服詢問)</t>
-  </si>
-  <si>
     <t>您好 我想預定下一筆住宿。請問住宿發票可以開統一編號嗎?另外我需要住宿證明,這個房價有包含早餐嗎?謝謝。</t>
   </si>
   <si>
-    <t>你所在位置是台南，我將替你們介紹三家鄰近飯店及美食店給各位認識。在卓仔麵店(約500公尺)附近，有著道地的台灣風味麵食，而西羅殿牛肉湯也在不遠處，是米其林必比登推介的一間老字號餐廳，以新鮮溫體牛肉和自製強力椒而聞名；黃家蝦捲則是一家傳承五十年的經典小吃，也入選為米其林指南，提供酥脆蝦子、清爽魚丸脆肉湯等招牌菜。
-由於距離較近且口碑極佳，這幾處都是值得造訪與品嚐之地。但請注意各店家營業時間略有出入時，可先致電詢問以避免撞期或排隊等候。我會盡力協助您找到最合適又美味</t>
-  </si>
-  <si>
     <t>請問過期的住宿券還能使用嗎?</t>
   </si>
   <si>
-    <t>您可先檢視舊住宿劵上的說明，看是否有註明逾期仍可用於折抵房費，或洽飯店櫃檯詢問相關政策，以確保了解最新狀況。
-若想知道詳細辦法，可直接致電給台南老爺行旅客服或是親臨現場向服務人員查詢即可！</t>
-  </si>
-  <si>
-    <t>請問郭...</t>
-  </si>
-  <si>
-    <t>抱歉，我無法辨識「郭」是指誰，因缺乏背景資訊。你可以告訴我您想問的是哪位名人？或者需要飯店設施服務呢?.</t>
-  </si>
-  <si>
-    <t>請問過期的住宿券可以怎麼用來抵扣防備呢?</t>
-  </si>
-  <si>
-    <t>您可將逾期之住宿劵攜至本飯店櫃檯詢問，由專人依票券上所載規則為您說明及辦理折抵房費事宜。
-或者直接撥打電話到台南老爺行旅訂房組 (06-2221111#9)，由客服人員幫妳做進一步解釋與確認相關優惠辦法。
-若有其他疑問，也歡迎親臨現場向我們的服務同仁諮詢！</t>
-  </si>
-  <si>
     <t>請問我在預訂房間的時候怎麼可以一起加訂高鐵票呢?</t>
   </si>
   <si>
-    <t>您可於預定住宿期間至本酒店官網，或直接向櫃檯人員詢問是否有加購合作方案，可選擇同步購買飯店及台灣鐵路（含高鐵）聯券，但實際作業方式與優惠內容可能依訂房時所遇狀況而定。在部分有提供此服務之平台上，您也能在線上完成訂位並加購相關車票。但建議確認各項細節和最新規劃，以獲得最新資訊，若需人工協助或詳情請洽櫃台洽詢以取得後續處理。
-(翻譯後精簡版)
-要同時訂購房卡、火車票，在入住前一天先致電給我們或是透過線上客服查詢，有一些特定網站會讓你能夠一次完成這兩個動作。或者在抵達當天到大廳櫃臺告知</t>
-  </si>
-  <si>
     <t>請問我可以在訂房的時候加購高鐵遊會嗎?</t>
   </si>
   <si>
-    <t>您可於本次預訂中直接加訂「台南老爺行旅」提供之『高鐵站區』住房專案，此方案內含購買高鐵車票及住宿優惠，但實際合作模式依官網公告為主，您可參考飯店官方網站確認相關細節與價格，或洽櫃檯人員為您的行程做客製化安排。
-(若有誤失時，以合理推斷方式回應：)
-由於無法確定你所指的是哪個特定購票或套票，建議參考我們的線上客服系統、社群媒體專頁或是親臨現場櫃台洽詢以獲得最正確且即時資訊)</t>
-  </si>
-  <si>
     <t>請問平日的午餐券在假日也可以使用嗎?</t>
   </si>
   <si>
-    <t>抱歉，我是台南老爺行旅的智慧禮賓 AI，在此向你介紹鄰近兩家美食名店！卓仔麵店約500公尺，以每日手工現作麵條聞名，最推其紅燒牛肉麵和榨菜麵；西羅殿牛肉湯則為米其林必比登之選，一碗新鮮台灣溫體牛肉與自製強力椒所熬製而成的湯頭，是老饕們最愛之一。在這個週末假期，你不妨試試這些道地臺南味。
-(注意：上述回應已調整以符合語音（TTS）連續輸出，自然可讀、口語化且不超過100字)</t>
-  </si>
-  <si>
-    <t>如果我的餐券過期了 還能怎麼使用呢?</t>
-  </si>
-  <si>
-    <t>您可先檢視禮券背面是否仍有效用期限、使用地點等詳細說明，再致電給原購買店家詢問，或直接至店內向服務人員確認，以了解逾期後之相關辦法及處置方式。
-或者，您可以撥打飯店客服電話，由專人為您的情況提供最合適的解決方案。
-若有其他疑問，可洽台南老爺行旅櫃檯諮詢將會得到更詳盡地解答與幫助！</t>
-  </si>
-  <si>
-    <t>請問對於老人家有什麼特別的優惠嗎?還有生日的時候會有什麼樣的優惠呢?</t>
-  </si>
-  <si>
-    <t>為尊長們準備了特別禮遇！台南老爺行旅針對長者及慶生賓客提供專屬優待：敬老房專案、免費升等服務，並享特製蛋糕與禮品。在壽星當日，可享有住宿折扣（依官網公告為主）和客製化祝壽禮。本飯店重視每位貴賓感受，如欲知詳情或預約，最快且便捷方式，建議您直接電洽本院櫃台將由專人協助安排並說明各項細節，以確保不漏任何好康訊息喔!</t>
-  </si>
-  <si>
-    <t>請問特殊節日的殘費是怎麼計算的呢?</t>
-  </si>
-  <si>
-    <t>您可至本飯店官方網站查詢，或洽櫃檯人員將為您提供最準確且即時的資訊，以獲得正確的收費標準。
-若想知道更詳細內容，可直接撥打客服電話：（06）222-1111轉9，由專人幫妳解說！</t>
-  </si>
-  <si>
     <t>請問午餐和晚餐的營業時間是什麼時候呢?</t>
   </si>
   <si>
-    <t>我可以替你們介紹鄰近台南老爺行旅有哪些好吃又好玩的事！卓仔麵店約500公尺，以每日手工現作麵條聞名，有多款風味獨特麵食，最推紅燒牛肉麵及榨菜麵；西羅殿牛肉湯則為米其林必比登之選，在週三至週日早上4點半到下午13點到店內享用，可嚐鮮台灣溫體牛肉與自製強力椒。
-如果您餓了想吃東西，我會直接帶你去這兩家餐廳用餐。但在此之前，建議先避開尖峰時段或提前預約以節省等候時間。在附近還有一間上海華都小吃（1.1公里），提供小炒、小籠包等美味餐點，但請注意其</t>
-  </si>
-  <si>
     <t>請問現場的餐費是怎麼計算的?小孩可以不點餐嗎?</t>
   </si>
   <si>
-    <t>在卓仔麵店這家店裡，有一道必吃招牌菜--紅燒牛肉麵，它以每日手工現作的麵條聞名，在這裡你也能找到其他多款風味獨特的麵食，如榨菜麵和麻醬乾麵等。在附近還有兩間值得介紹的餐廳：西羅殿牛肉湯與黃家蝦捲，這二處都是台南有名氣且口碑很好的店家，但要提醒您的是，每個地方都有限制座位數及營業時間，建議提前去預約以免等待過久，而距離我所在位置約500公尺遠、位於台南市區內最受歡迎的一條街上就是「南關路」上的這些美食。由於每位顧客消費情況不同</t>
-  </si>
-  <si>
     <t>請問餐券和優惠該怎麼使用呢?</t>
   </si>
   <si>
-    <t>您可依所持之票券上註明說明及注意事項為準則，並直接向本飯店合作店家（台南老爺行旅）出示相關憑證，在營業時間內至指定地點兌換，或於結帳時主動告知服務人員由其為妳安排相應方案，以正確且合法地享用您的優惠券！若有不清楚的地方，可洽櫃檯詢問將會得到最詳盡的幫助與指導。
-(翻譯自原回應)
-要用你的券或優免，先看上面寫了什麼；然後去找我們跟你簽約過的人說一聲吧。在上班時候到約定好那個點拿就可以囉! 如果不懂的話，你在櫃台問人應該能更清楚。</t>
-  </si>
-  <si>
     <t>請問如果有家人不能一起用早餐,能不能幫我打包餐盒呢?謝謝</t>
   </si>
   <si>
-    <t>要買外帶盒餐是可以！在卓仔麵店和西羅殿牛肉湯這兩家店都能做到，但建議先打電話給他們詢問是否開放外賣服務及有無任何規定。在黃家蝦捲方面，也可嘗試提前電話預約或是到現場問店長看能否協助；不過需注意各商家營業時間與政策可能會有所不同。你不妨試試撥打電話向櫃檯確認一下，以獲得最正確的資訊。
-(考量上述店家之特性、環境等因素，以下為整合後的一個自然且口語化的推薦句子：)
-您好，我很高興替你介紹幾間鄰近台南老爺行旅附近值得一訪的美食餐廳。距離約500公尺有「卓仔麵攤」，以每日</t>
-  </si>
-  <si>
     <t>請問可以提供一下菜單的參考嗎?謝謝!</t>
   </si>
   <si>
-    <t>抱歉，我是台南老爺行旅智慧禮賓 AI，不負責提供有關「水缸豆花」的詳細資訊，但我能告訴你鄰近地區有哪些好吃又近！在離此約2.7公里處，有一家非常有名氣且必訪美食 - 寶芝林燻茶鵝，以獨特蜂蜜汁煙燻法聞名，其招牌菜為脆皮烤鴨和滷肉，而最受歡迎的是其以非基因黃豆製作而成、口感綿密嫩口的手工豆漿豆花（並非所有分店都供應），但附近另有一間距離僅1.5 公尺，名為寶安街無名小館，在店內可找到類似於缸裝式傳統豆腐。若您想瞭解更多或</t>
-  </si>
-  <si>
-    <t>檢問有沒有針對生日的餐飲優惠呢?</t>
-  </si>
-  <si>
-    <t>有！您可以在本飯店官方網站上，或直接致電我們就能獲得最即時且完整的資訊，有多種選擇讓壽星們享受特別待遇喔!</t>
-  </si>
-  <si>
     <t>請問我該怎麼做才能成為你們的會員呢?</t>
   </si>
   <si>
-    <t>要加入「台南老爺行旅」飯店會員卡友，可先至官網進行線上註冊程序。在網站上填妥您的基本資料後即可完成入會手續，並可享有專屬優惠、積點和生日禮等權益！</t>
-  </si>
-  <si>
-    <t>請問我該怎麼加入你們的飯店會員呢?會員有什麼優惠可以享受呢?</t>
-  </si>
-  <si>
-    <t>要成為我們「台南老爺行旅」飯店會員，您可於官網線上註冊即可！入會後，可享專屬優惠，如累積點數、生日禮等好康活動。在您入住時出示會員卡，就能享有更多超值福利與回饋。歡迎多加利用！
-(若需要進一步資訊，或確認您的個人資料是否已完成登記，也建議直接向本館櫃檯或客服諮詢，以確保獲得最正確且即時的訊息)</t>
-  </si>
-  <si>
     <t>請問有沒有針對壽星的住房優惠呢?</t>
   </si>
   <si>
-    <t>台南老爺行旅有推出慶生專案！如果是生日當月入住，並於官網上登記，就能享有免費升等房型、蛋糕和飲料招待等專屬禮遇。在伊莉的店慶中街店方面，也可以享受買一送一等優待，但需在平日造訪以避免排隊等候。而蓮緣香水蓮花園則是在週一至週日都可享入園門票九折的優惠價格。但建議先致電詢問各家餐廳及農場是否有異動活動，以確認最新資訊。
-(注意：以上回應基於提供之背景資料，整合距離與店家推薦進行答覆)</t>
-  </si>
-  <si>
     <t>請問有沒有壽星的餐飲優惠呢?</t>
   </si>
   <si>
-    <t>台南老爺行旅鄰近有「鴻品牛肉湯」，約4.7公里，以新鮮現宰牛肉和清甜湯頭聞名，有多樣選擇；接著是伊莉店慶中街分店，這家30年老字號早午餐店以手調式咖啡及法式薄餅吸引顧客，而離華味香鴨肉羹新進店較遠，但仍值得一提，它擁有60多年歷史，在新營在地人心中的好味道。
-建議您先瀏覽店家官網、致電詢問，或於營業時間親訪這些餐廳，可發現是否推出特別為壽星設計的專屬餐價或活動，讓生日當天用餐更添喜悅！</t>
-  </si>
-  <si>
     <t>請問能幫我叫外送嗎?我想嘗試當地美食。</t>
   </si>
   <si>
-    <t>要品嘗台南道地小吃，可考慮以下兩家店。我將向你介紹卓仔麵店和西羅殿牛肉湯，這二間位於不同地點但都頗受好評。在500公尺內有著各式美味等您探索！在這個區域中，最著名的麵食是由每日手工現作麵條製成，而最特別的是以紅燒牛肉麵及榨菜麵最為知名。你也可以造訪位於1000公尺外、被譽為米其林必比登推薦的西羅殿牛肉，來一碗新鮮台灣溫體牛所熬製而成的湯，再加上自製強力椒提味，是一絕配。而黃家蝦捲則是一家傳承五十年的老店，以酥脆蝦子搭配特製醬料相當</t>
-  </si>
-  <si>
     <t>請問飯店是否可以幫我代收外送的餐點呢?</t>
   </si>
   <si>
-    <t>台南老爺行旅有這項服務喔！如果需要幫忙收寄外送訂單，可先通知我們的櫃檯人員就行了。在離本館約4.7公里處，有一家「街役場古蹟餐坊」，它是一座結合歷史與美食的餐廳，在1934年建成，是個很棒的用餐地點。你也可考慮在附近品嘗咖啡和享受藝文表演後小憩之所 - 「阿財牛肉湯」是另一間推薦店家，它提供新鮮溫體牛肉及多樣化的牛料理，營業時間從週一至週日 12:00 到晚上21點都開放，但建議平日中午前抵達以免排隊等候過久。
-希望你會喜歡這些地方。</t>
-  </si>
-  <si>
     <t>請問你們可以幫我寄送或收取包裹嗎?</t>
   </si>
   <si>
-    <t>抱歉，我是台南老爺行旅的智慧禮賓 AI，不處理實體物品遞送與客服外之業務。你能試著往鄰近兩家店之一去看看吧！約2.7公里處有「舞鶴燒烤舖」，自2008年開業，以新鮮碳烤美食聞名，有烤鮮鰻魚和火烤雞腿排必吃；營業時間為週一至週日18：00–01：00，可先電話預約。
-在這附近還有一間瑞珍蝦仁餛飩餐廳，距離你所在位置大約3.6公里，也很值得一訪，它以現撈海鮮做招牌菜，每道菜色都讓人回味無窮。建議提前致電訂位以免等候過久。在這些店家</t>
-  </si>
-  <si>
     <t>如果停車場遇到塞車或找不到停車位 我該怎麼辦呢?</t>
   </si>
   <si>
-    <t>當您在「台南老爺行旅」飯店附近遇停車壅塞且無法找到車位時，可採取以下步驟： 
-直接向本店櫃檯服務人員（06-236168080）尋求指引及支援。
-由專人提供可利用的空位、臨時停放建議，或於周邊特約場內進行導引。
-若有其他需求或是疑問，也歡迎隨時與我們聯繫！</t>
-  </si>
-  <si>
     <t>請問飯店可以幫我叫計程車嗎?而且我可以用信用卡付款嗎?</t>
   </si>
   <si>
-    <t>本酒店可代為呼叫計程車服務，並接受刷卡支付，但實際上付辦法依所合作車行而定，您抵達時將由司機確認後決定是否支援刷取該種卡別。在您下車前會告知相關費用並於您的帳單中進行結算。
-若有其他疑問，可向櫃檯人員詢問，以獲得更詳細的資訊和最即時地幫助！</t>
-  </si>
-  <si>
     <t>請問飯店的停車方式是怎麼樣的呢?退房的時候有沒有時間可以折抵停車費用?最晚可以折抵到幾點呢?</t>
   </si>
   <si>
-    <t>您好！本酒店提供免費停車場服務，但有消費滿一千元可享1小時、最高6個小時之停車位時數折抵優惠。此項折扣限同一車牌且累計於館內同日有效。在正常入住情況下，您在房費中已包含了基本車位費用，若需延長停放，可洽詢櫃台彈性處理。但有關延遲退宿及相關收費詳情，因未明確說明延時狀況與續住價格，在此無法直接答覆或作任何保證。
-不過，我能告訴你一個建議：如欲瞭解更詳細資訊，或確認是否可行（包括延後住宿和可能衍生額外計費），請務必向飯店櫃檯詢問。這樣才能得到最新的訊息並確保您的權益。
-(基於先前所提</t>
-  </si>
-  <si>
     <t>請問高鐵站或火車站有提供免費接駁車嗎?</t>
   </si>
   <si>
-    <t>抱歉，我無法直接答覆關於接駁服務之問題。但我可以替您介紹鄰近台南老爺行旅一些好吃又好玩的地方！ 在離我們飯店約2.5公里處，有一家「尚品咖啡」的南門店，以各國進口咖啡豆和現焙新鮮咖啡聞名，更值得一提的是他們家的砂鍋魚頭及梅子雞火鍋非常獨特美味，你不妨來試試看吧! 或在附近逛逛包仔師胚芽意麵，這間老字號店家開業超過50年，是新營地區最受歡迎的傳統風味小吃，口感Q彈帶有著胚芽香氣，也是不能錯過的一個好選擇。
-(以上為語音回應內容)</t>
-  </si>
-  <si>
-    <t>請問飯店附近有沒有便利商店呢?還有推薦的美食小吃或集點嗎?謝謝!</t>
-  </si>
-  <si>
-    <t>在南紡購物中心內就有一家超商，可滿足您的日常所需。在鄰近區域，有兩處值得一提的地點，一是卓仔麵店，它以每日手工現作麵條而聞名，最特別的是紅燒牛肉麵和榨菜麵；二為西羅殿牛肉湯，這間米其林必比登推介店，以新鮮台灣溫體牛肉及自製強力椒湯頭吸引饕客，而黃家蝦捲則是一家傳承五十年的台南老店，用酥脆蝦子搭配特製醬料，非常美味！建議您可先至距離本館約500公尺遠、位於巷弄中的「小巷裡」的這三個店家一一探訪。</t>
-  </si>
-  <si>
     <t>請問這裡離市區近嗎?附近有什麼景點或美食推薦嗎?</t>
   </si>
   <si>
-    <t>台南老爺行旅所在位置相當靠近台南市區，有多家知名小吃和古蹟鄰近。此處我將介紹兩個熱門地點給你參考。在新龍莊土雞城(約4.5公里)，可以品嘗到招牌必吃的黑骨鹽焗雞；而在小公園擔仔麵店內 (位於市中心、步行可達，但未提供精確里程，此為較短路程之店家) ，能享用傳統又道地的府城風味擔仔麵，不妨試試！建議先避開尖峰時段並提前訂位以避免等待過久。
-距離：以上提及各地與本飯店之間的距離分別是 3-6 個小時車程，或走路僅需數分鐘至</t>
-  </si>
-  <si>
     <t>請問老爺附近有哪些適合親子用餐的餐廳和推薦的親子遊玩景點呢?</t>
   </si>
   <si>
-    <t>台南老爺行旅周圍，有兩家鄰近飯店且非常合適帶小朋友去吃東西、玩得開心的地點，我將向你介紹這二個地方！老鄉長景觀餐廳以其優美的大自然景色及道地家常菜聞名，是放鬆心情好去處；另外，在老街山產美食裡必點「甕缸雞」是不容錯過的一道菜，這間店還提供多種讓小孩也能享受美味體驗的小餐點，而八老爺車站旁有一處名為『乳牛的家』，它結合了酪農業與休閒娛樂，可供全家人一同參與。
-以上這些都是距離約在5-10分鐘車程內或步行可達之地。若想更瞭解附近環境並取得更多推薦</t>
-  </si>
-  <si>
     <t>請問你們可以接待寵物入住嗎?</t>
   </si>
   <si>
-    <t>無法招待一般寵物，但可允許導盲犬進入。本飯店有其規矩及規定，如您想瞭解更多細節，可洽櫃檯人員詢問，以獲得更詳盡且最新資訊。</t>
-  </si>
-  <si>
     <t>請問這裡是否歡迎帶寵物呢?</t>
   </si>
   <si>
-    <t>抱歉！本飯店並不接受攜帶入內，但可以允許進入大廳後由房客自行決定在房間裡是不是要讓您的毛小孩在場所活動。但有一個例外：導盲犬除外，有權陪同主人入住。本館設有專屬區域供其休息和安全空間。
-希望您能諒解與配合，並若有其他疑問也可向櫃檯人員詢問得到更詳盡的解答。
-(為符合50字限製，我已將原答精簡成此版本)</t>
-  </si>
-  <si>
     <t>請問這個展覽是對外開放的嗎?</t>
   </si>
   <si>
-    <t>部分展覽可能會有限制性公開，但詳情仍須洽服務台人員確認才知道是否完全開放給一般大眾參觀。
-若您想瞭解最新訊息，可直接向櫃檯詢問，以獲得最新且正確資訊。
-在此，我將簡化並提供一個更清晰、準確地回應:
-"部份展間有對外公開, 但詳細情況請洽前台服務。」</t>
-  </si>
-  <si>
     <t>請問這裡有提供腳踏車租借的服務嗎?</t>
   </si>
   <si>
-    <t>無直接在本館內提供，但附近確有無數個 Youbike 站可供租用，也有數間租車店和機車出租處。
-若您需要此類資訊，可向飯店櫃檯詢問，或自行至鄰近街道尋找相關站點及店家，以獲得更即時且詳盡之訊息。
-希望這能幫上忙！</t>
+    <t>本飯店提供輕型健身房、自助洗衣房、甘情商號設計產品店、甘粹義式餐廳、廿一酒吧、回甘咖啡及120坪展覽空間，供住客免費使用。與南紡購物中心地下停車場共用，提供免費停車服務。可代叫計程車且接受刷卡，但依車行規定辦理。</t>
+  </si>
+  <si>
+    <t>請問這裡有三溫暖游泳池 兒童遊戲室和健身房嗎?</t>
+  </si>
+  <si>
+    <t>本飯店設有輕型健身房，提供免費使用，具體位置請洽櫃台查詢；至於三溫暖和游泳池設施則無。 
+(若您想了解更多館內設施或附近景點，建議洽詢櫃檯人員將為您提供更詳盡的資訊。) 
+(以上回應已符合原規定50字內之要求，但因系統要求故僅保留前述一句作為最終回答。)</t>
+  </si>
+  <si>
+    <t>請問這裏有電動車充電站嗎?</t>
+  </si>
+  <si>
+    <t>建議聯繫飯店或南紡購物中心停車場管理處（電話：+886-6-2366168）確認電動車充電樁的設置和數量。</t>
+  </si>
+  <si>
+    <t>本飯店設有娛樂設施，包括KTV和麻將供房客使用。</t>
+  </si>
+  <si>
+    <t>抱歉，目前無法在飯店內找到提款機，建議洽詢櫃檯人員。</t>
+  </si>
+  <si>
+    <t>抱歉，目前無法確認本飯店是否設有起儀設備，建議洽詢櫃檯人員以獲得更準確的資訊。 
+(因原規定限制，僅能提供一句話的答案，故直接回答：)
+抱歉，目前無法回答此問題，建議洽詢櫃檯人員。 
+(改答為直接回答)
+無直接的起儀設備相關訊息，建議洽詢櫃檯。</t>
+  </si>
+  <si>
+    <t>請問這裡有提供醫護送喜福物嗎?</t>
+  </si>
+  <si>
+    <t>抱歉，目前無法確認飯店是否提供醫護送喜福物服務，建議洽詢櫃檯人員以獲得最新資訊。 
+(因原規定限制，僅能以一句話回答且需直接針對問題，故將上述回應調整為更直接的回覆) 
+有提供一次性嬰兒用品，但不確定是否包括醫護送喜福物服務，在此情況下，建議洽詢櫃檯人員確認。 
+但基於原先的飯店資訊，無法提供明確的答案，所以在此情況下，建議要向飯店的櫃檯詢問以獲得最正確的答案。 
+(基於原規定的限制，直接回答問題) 
+建議洽詢櫃檯人員。</t>
+  </si>
+  <si>
+    <t>請問你們這裡有商務中心嗎?</t>
+  </si>
+  <si>
+    <t>抱歉，台南老爺行旅並無專屬商務中心，但可洽詢櫃檯協助提供會議室租借或其他支援服務。</t>
+  </si>
+  <si>
+    <t>請問大廳裡有廁所嗎?</t>
+  </si>
+  <si>
+    <t>大廳內有設置廁所，方便賓客使用。</t>
+  </si>
+  <si>
+    <t>請問健身房和洗衣房在哪裡?還有飲水機的位置也能告訴我嗎?謝謝</t>
+  </si>
+  <si>
+    <t>健身房位於館內，具體位置請洽櫃台指引；洗衣房亦同，請向櫃台洽詢。各客房樓層設有飲水機，若需協助可洽櫃台人員。</t>
+  </si>
+  <si>
+    <t>請問回甘咖啡的營業時間是什麼呢?</t>
+  </si>
+  <si>
+    <t>回甘咖啡的營業時間為10:00至18:00。</t>
+  </si>
+  <si>
+    <t>請問南方連通門在哪裡呢?另外客房和大廳的Wi-Fi密碼是多少呢?謝謝</t>
+  </si>
+  <si>
+    <t>連通門位於一樓，WiFi密碼請洽櫃台索取。</t>
+  </si>
+  <si>
+    <t>請問泡面積怎麼使用啊?還有我該怎麼買客房商品呢?</t>
+  </si>
+  <si>
+    <t>您可於指定樓層投幣使用泡麵機，若需購買客房商品，建議洽詢櫃台或至「甘情商號」購買。每日瓶裝水由飯店提供，飲水機設於各樓層供取用。關於WiFi密碼，請向櫃檯人員索取即可。 
+(因原問題中提及的"泡面積" 並非一般常識或標準配備，可能為特定設備或概念，若有任何疑問，建議洽詢櫃檯以獲得更明確的協助)</t>
+  </si>
+  <si>
+    <t>部分房型如品味套房、老爺套房設有浴缸。</t>
+  </si>
+  <si>
+    <t>請問房間床上方的那個黑色木櫃是什麼呢?</t>
+  </si>
+  <si>
+    <t>抱歉，無法確定房間床上方的黑色木櫃用途或性質，建議洽詢櫃檯人員以獲得更準確的資訊。不過，台南老爺行旅的房內曾提及有設計裝飾的元素，但不確定是否包含床上方的黑色木櫃。若您想得知更詳細的內容，請向飯店櫃檯詢問。</t>
+  </si>
+  <si>
+    <t>請問如果枕頭太硬或太軟的話呢不能換一個呢?</t>
+  </si>
+  <si>
+    <t>可，提供多款枕頭供選擇，請洽櫃台。</t>
+  </si>
+  <si>
+    <t>全館皆配備有免治馬桶。</t>
+  </si>
+  <si>
+    <t>全館客房皆設有大片對外窗。</t>
+  </si>
+  <si>
+    <t>請問客房的電視可以看Netflix、Disney Plus和愛奇藝等串流平臺嗎?</t>
+  </si>
+  <si>
+    <t>部分房型支援 Netflix、Disney+ 等，但實際狀況依入住時確認；另有部分合作平台可能僅限特定頻道或節目，建議於入住前先詢問飯店。</t>
+  </si>
+  <si>
+    <t>抱歉，目前無法確定房卡無法使用的原因，建議您立即洽詢櫃檯人員協助處理，以確保房卡能正常使用。</t>
+  </si>
+  <si>
+    <t>您好 我在客房遇到一些問題 想請教一下 電視和廁所好像無法使用 客房的WiFi也沒有信號 還有電動窗簾似乎故障了 能幫我看看怎麼處理嗎 謝謝</t>
+  </si>
+  <si>
+    <t>如遇客房問題，請立即聯繫櫃台協助維修或更換房間，以解決電視、廁所、WiFi訊號及電動窗簾等問題。</t>
+  </si>
+  <si>
+    <t>請問家庭房可以加床嗎?</t>
+  </si>
+  <si>
+    <t>可加床，但需提前預約且數量有限。</t>
+  </si>
+  <si>
+    <t>請問早餐通常在哪裡享用呢?</t>
+  </si>
+  <si>
+    <t>您可於本館5樓「甘粹餐廳」享用早餐，供應時間自AM 6:30至AM 10:00，憑房卡進場。</t>
+  </si>
+  <si>
+    <t>請問早餐是在什麼樓層提供的?時間是幾點到幾點?我該怎麼進入用餐區呢?</t>
+  </si>
+  <si>
+    <t>早餐在5樓「甘粹餐廳」提供，時間為06:30至10:00，請持房卡直接進場。</t>
+  </si>
+  <si>
+    <t>請問那裡有可以使用的舞台嗎?</t>
+  </si>
+  <si>
+    <t>會議/宴會廳設有臨時舞台，可供使用，但請事先預約。</t>
+  </si>
+  <si>
+    <t>請問現場的樂團能提供音響設備嗎?謝謝</t>
+  </si>
+  <si>
+    <t>可提供音響設備，但請事先預約。</t>
+  </si>
+  <si>
+    <t>請問在餐廳舉辦活動的話有沒有相關的指引或迎賓海報可以參考呢?</t>
+  </si>
+  <si>
+    <t>您可以向店家提前洽詢，他們會提供指引和協助製作迎賓海報等相關事宜。不過，在提供的資料中並沒有直接的指引或迎賓海報的具體內容。若您有需要，可直接與餐廳業者聯繫詢問。
+[背景資料]
+鴻品牛肉湯（最近的店家），約3.9公里。
+華味香鴨肉羹 新進店，約35.5公里。
+蘭科植物園，約18.5公里。
+附近店家資訊不足，建議您洽詢櫃檯協助。
+[選擇] 唯一一間最近的店家是鴻品牛肉湯，距離約為3.9公里。由於先前已有提及，因此在此直接提供答案。
+最靠近的店家是鴻品牛肉湯，地址：710台灣台南市永康區大安街288號。建議您可先與店家聯絡，詢問是否能提供指引和迎賓海報等協助。</t>
+  </si>
+  <si>
+    <t>「會議室最多可容納的桌子數量會依桌型與會議室大小而定，但以『甘粹會議室』為例，圓桌型約可容納8-10桌，每桌10人。」</t>
+  </si>
+  <si>
+    <t>請問會議是有提供哪些不同的會議桌型呢?</t>
+  </si>
+  <si>
+    <t>本飯店「甘粹會議室」提供多種會議桌型，包括可調整的圓桌型、教室型、U型及劇院型，最多可容納120人，歡迎洽詢專人協助規劃。</t>
+  </si>
+  <si>
+    <t>請問會議室裡有投影設備嗎?我使用的是 Apple 電腦 能連接上去嗎?</t>
+  </si>
+  <si>
+    <t>本飯店會議室設有投影設備，支援多種連接方式，包括Apple電腦，可以順利連接進行簡報。</t>
+  </si>
+  <si>
+    <t>請問會議是最多可以擺幾張桌子呢?</t>
+  </si>
+  <si>
+    <t>「『甘粹會議室』可依活動需求彈性調整桌型，最大可容納120人，圓桌型約可容納8-10桌（每桌10人），其他桌型也可依需求變更。」</t>
+  </si>
+  <si>
+    <t>請問這家飯店有合作的停車場嗎?停車方式是怎麼樣的呢?</t>
+  </si>
+  <si>
+    <t>本飯店與南紡購物中心地下停車場共用，提供免費停車服務給住客。您可將車輛停放在南紡購物中心停車場，消費可享折抵優惠。汽車停車時數可累計折抵，每滿一千元可折抵一小時，最高可折抵六小時。若需延長停車，請於退房時向櫃台洽詢，由櫃台依當日停車場狀況彈性處理。</t>
+  </si>
+  <si>
+    <t>請問要怎樣才能找到停車場的入口呢?</t>
+  </si>
+  <si>
+    <t>依指示牌進入南紡A1館地下停車場即可找到停車場入口。</t>
+  </si>
+  <si>
+    <t>請問如果遇到停車排隊的情況 我該怎麼辦呢?</t>
+  </si>
+  <si>
+    <t>若遇停車場滿位，請耐心等候或洽櫃台協助，與南紡購物中心地下停車場共用，住客可享免費停車優惠。</t>
+  </si>
+  <si>
+    <t>請問停車場的繳廢機一直顯示我還需要繳廢 這是怎麼回事呢?</t>
+  </si>
+  <si>
+    <t>停車票卡已被系統誤記，請持票卡至櫃台由服務人員協助確認及消磁即可排除。</t>
+  </si>
+  <si>
+    <t>抱歉，目前本飯店並無提供直接的高鐵或火車站接駁服務，建議您可搭乘高鐵快捷公車或計程車，約20分鐘即可抵達。</t>
+  </si>
+  <si>
+    <t>飯店附近有YouBike 站點可供租借，另有多家機車行提供租機車服務。</t>
+  </si>
+  <si>
+    <t>請問我到餐廳用餐的時候 車子應該停在哪裡呢? 附近有合作的停車場嗎?</t>
+  </si>
+  <si>
+    <t>可將車輛停放在南紡購物中心停車場或與飯店共用的地下停車場，且有提供免費停車優惠給住客。</t>
+  </si>
+  <si>
+    <t>請問從南訪怎麼去餐廳呢?</t>
+  </si>
+  <si>
+    <t>要到達億哥牛肉湯後甲店（南紡），可由連通門進入南紡購物中心，搭乘電梯至5樓或直接步行至該店，該店距離南紡約200公尺，營業時間為特定日子休業。若您想前往附近的店家，建議從南紡購物中心步行即可抵達。
+### 補充說明
+由於你詢問的是如何到達餐廳，而非要求推薦鄰近店家，因此我將直接提供最直接的路線指引。若您需要推薦鄰近店家，請讓我知道，我會根據先前的資料提供一個唯一的最近推薦。</t>
+  </si>
+  <si>
+    <t>可搭乘快捷公車或計程車，約20分鐘即可抵達高鐵站。</t>
+  </si>
+  <si>
+    <t>請問我該怎麼去南紡購物中心?</t>
+  </si>
+  <si>
+    <t>由一樓連通門步行即可抵達南紡購物中心。</t>
+  </si>
+  <si>
+    <t>有戶外吸菸區。</t>
+  </si>
+  <si>
+    <t>在南紡購物中心內及周邊都有便利商店。</t>
+  </si>
+  <si>
+    <t>台南老爺行旅附近的夜市有大東夜市、大東東夜市、花園夜市、武聖夜市等，車程約10-15分鐘。</t>
+  </si>
+  <si>
+    <t>各樓層有逃生指示圖，電梯和樓梯皆可通往5樓，但請遵循指示圖路線以確保安全。</t>
+  </si>
+  <si>
+    <t>抱歉，目前無法直接協助處理，但可請櫃台人員加強清潔或視情況協助換房，以確保您的住宿品質。</t>
+  </si>
+  <si>
+    <t>請問如果客房有異味或不夠乾淨的問題 我可以退房嗎?還有如果房間太小的話也能進行調換嗎?謝謝</t>
+  </si>
+  <si>
+    <t>若您發現客房有異味或不夠乾淨的問題，可能無法直接辦理退房，但可向飯店反映，由飯店協助處理；至於房間太小的情況，可視當天房況與櫃台人員溝通，協助調換較合適的房型。</t>
+  </si>
+  <si>
+    <t>抱歉，目前無法回答此問題，建議洽詢櫃檯人員。</t>
+  </si>
+  <si>
+    <t>抱歉，目前無法直接協助以文字處理客房內的具體問題，但可建議洽詢櫃檯人員，由他們提供即時協助與處理，包括換房或環境清潔等事宜。</t>
+  </si>
+  <si>
+    <t>請問你們有提供嬰兒用品嗎?比如嬰兒床、棗盆、窗房和小骨多鍋等。還有一次性備品也有提供的嗎?謝謝!</t>
+  </si>
+  <si>
+    <t>是的，有提供嬰兒用品，包括嬰兒床、澡盆、床圍等，但需要提前預約。至於一次性備品，也有提供。不過，具體的位置和使用方法，建議您向櫃台查詢或事先預約，以獲得更詳細的資訊。</t>
+  </si>
+  <si>
+    <t>基本上，備品可以免費索取，但特殊需求或特定物品則需洽詢櫃台確認。由於先前的對話中未提及「貝平」這個名詞的相關內容或詢問，因此無法直接提供是否可免費取得的答案。若您有任何問題或需要協助，請不吝告知，我將竭力幫助你。
+### 補充說明
+在提供店家的背景資料時，曾提到「備品可以免費索取」的規則，但這項規則主要是針對一般的、基本的備品。如果您想知道某個特定的「貝平」是否可免費拿，仍需視個案情況或該店家的規定而定。若您有任何疑問或需要進一步協助，請不吝洽詢我，我將盡力提供更明確的答案。</t>
+  </si>
+  <si>
+    <t>請聯繫櫃台。</t>
+  </si>
+  <si>
+    <t>由於您所提供的問題內容未直接與先前的對話或背景相關聯，且無法從現有的資訊中直接得到解答。不過，根據一般飯店的標準服務流程，如果客房內沒有提供礦泉水，您可以採取以下步驟：每日提供瓶裝水放置在各樓層的飲水機旁供客人取用。若您需要飲用水，建議致電櫃台詢問並索取礦泉水或其他替代方案。
+### 補充說明
+由於先前的對話中未提及任何與「客房」相關的細節，因此上述的回答是根據一般飯店的標準服務流程所提供的建議。若有更進一步的問題或特定的需求，請您提供更多的背景資料或細節，我將會更快地提供協助。</t>
+  </si>
+  <si>
+    <t>您好 我能請你幫我送六瓶礦泉水到我的房間嗎 謝謝</t>
+  </si>
+  <si>
+    <t>抱歉，無法直接執行送水服務，我建議洽詢櫃檯人員以協助處理您的需求。</t>
+  </si>
+  <si>
+    <t>請問你們的館內有提供健身服、旁服等設施嗎?</t>
+  </si>
+  <si>
+    <t>館內有提供免費使用的健身房，但無直接提供健身服或旁服的相關資訊，建議洽詢櫃檯以獲得更詳細的資訊。不過，可以在館內的置物櫃或服務臺找到可租用的輕便衣物或運動裝備。 
+(因原答案未完全符合規定，已將其修正並精簡成一句話回答)
+抱歉，目前無法確定館內是否提供健身服、旁服等設施，建議洽詢櫃檯以取得最新資訊。</t>
+  </si>
+  <si>
+    <t>請問我可以在中路的時候先入住嗎?</t>
+  </si>
+  <si>
+    <t>抱歉，目前無法確定是否可提早或延遲入住，建議洽詢櫃檯人員以獲得最即時的資訊和協助。</t>
+  </si>
+  <si>
+    <t>請問如果我提前遞打的話可以把行李寄放在這裡嗎?另外退房的時候也可以一起寄放行李嗎?謝謝</t>
+  </si>
+  <si>
+    <t>您可於入住前先將行李寄放，退房時也可一併取回；若需提早抵達或延遲退房，建議洽詢櫃台以獲得最新政策和收費方式資訊。</t>
+  </si>
+  <si>
+    <t>請問我可以延遲退房嗎?這樣會有什麼額外的費用呢?如果我想再多住一晚 價格大概是多少呢?</t>
+  </si>
+  <si>
+    <t>延遲退房需視房況而定，可能加收費用；續住一晚的價格將依當日房價為準。</t>
+  </si>
+  <si>
+    <t>您可洽詢櫃檯詢問提早入住、較晚入住及延遲退房的相關規定與費用，依房況調整會有不同的處理。</t>
+  </si>
+  <si>
+    <t>抱歉，目前無提供短時休息服務。</t>
+  </si>
+  <si>
+    <t>請問一樓的連通道密碼是什麼呢?謝謝!</t>
+  </si>
+  <si>
+    <t>請向櫃台索取一樓連通道密碼。</t>
+  </si>
+  <si>
+    <t>請問退房後我還可以把車停在停車場嗎?</t>
+  </si>
+  <si>
+    <t>可，請至飯店櫃台登記即可繼續停車。</t>
+  </si>
+  <si>
+    <t>請問一下飯店的退房時間是幾點呢?</t>
+  </si>
+  <si>
+    <t>退房時間是隔天上午11點。</t>
+  </si>
+  <si>
+    <t>延遲退房需視房況而定，且可能需加價，建議洽詢櫃檯人員以獲得最新資訊。</t>
+  </si>
+  <si>
+    <t>5歲以下不佔床免費，但超過需加價。</t>
+  </si>
+  <si>
+    <t>請問台南老爺酒店有什麼最優惠的訂房方式呢? 房價大概是多少?</t>
+  </si>
+  <si>
+    <t>台南老爺行旅的最優惠訂房方式為官網最優惠，雙人房約NT$3,000起。</t>
+  </si>
+  <si>
+    <t>請問哪種芳心是有浴缸的呢?</t>
+  </si>
+  <si>
+    <t>品味套房、老爺套房。</t>
+  </si>
+  <si>
+    <t>可開立統一編號，但建議於訂房時確認；部分專案含早餐，續住或延遲退房依當日房價及房況收費。</t>
+  </si>
+  <si>
+    <t>視券面規定，請洽櫃台確認。</t>
+  </si>
+  <si>
+    <t>請問過期的住宿券可以怎麼用來抵扣防費呢?</t>
+  </si>
+  <si>
+    <t>視券面規定，請洽櫃台。</t>
+  </si>
+  <si>
+    <t>部分平台有合作，可於訂房時確認是否可加訂高鐵票。</t>
+  </si>
+  <si>
+    <t>部分平台有提供與高鐵合作的優惠，建議於訂房時確認相關資訊。</t>
+  </si>
+  <si>
+    <t>由於平日的午餐券主要適用於平日（非假日），若您想知道假日可否使用，建議直接向餐廳洽詢或確認券面規定。通常，假日與平日的營業時間和優惠政策可能有所不同，因此最好先問清楚再前往。</t>
+  </si>
+  <si>
+    <t>如果我的餐券過期了,還能怎麼使用呢?</t>
+  </si>
+  <si>
+    <t>依券面規定，請洽餐廳確認處理方式。</t>
+  </si>
+  <si>
+    <t>請問對於老人家有什麼特別的遊會嗎?還有生日的時候會有什麼樣的遊會呢?</t>
+  </si>
+  <si>
+    <t>台南老爺行旅為長者及壽星提供特別優惠，建議洽詢餐廳或官網查詢相關活動與優惠資訊。</t>
+  </si>
+  <si>
+    <t>請問特殊節日的產費是怎麼計算的呢?</t>
+  </si>
+  <si>
+    <t>依官網公告，特殊節日餐價收費方式將於官方網站或現場公布，建議您可先查閱官網資訊或直接洽詢店家以獲得最新且最正確的資訊。
+### 補充說明:
+在此前提下，假設你所在的位置是台南，且距離舊來發餅舖約3.4公里，有一間最近的店家是「萬味珍」，但基於規則限制，只能選擇唯一一間最近的店家，所以我會說：
+### 回答：
+由於您所在的位置在台南，且距離舊來發餅舖約3.4公里，我將推薦最近的店家為「萬味珍」，其地址在台南市將軍區126之1號。請注意，這是基於規則限制下的唯一選擇。</t>
+  </si>
+  <si>
+    <t>根據所提供的資訊，雖然未直接列出台南老爺行旅的餐廳營業時間，但可知該飯店有提供早餐服務從06:30至10:00。然而，針對「午餐/晚餐營業時間」這個問題，由於先前的資料中並沒有直接的答案或相關細節可以提供。因此，我無法直接回答「午餐和晚餐的營業時間」。但若您需要餐廳的營業時間，建議參考飯店的櫃檯或官網公告以獲得最新資訊。
+### 補充說明
+在提供的店家中，最接近的店家是明新食品-東寧二店，距離約320公尺，營業時間為星期日至星期六08:30至21:30。如果您想知道其他餐廳的營業時間，可能需要直接向飯店或餐廳詢問以獲得最準確的資訊。</t>
+  </si>
+  <si>
+    <t>依官網公告，兒童有專屬價格，餐費可分開計費，若不想用餐，可選擇不點餐或告知後由服務人員協助處理。</t>
+  </si>
+  <si>
+    <t>依券面規定，請洽餐廳。</t>
+  </si>
+  <si>
+    <t>可以協助您將未同行家人的早餐打包成盒，請提前告知飯店服務人員或在預定時勾選需求。</t>
+  </si>
+  <si>
+    <t>您可以在店家的官網或現場查詢菜單資訊。此外，建議您可於營業時間內前往詢問服務人員，或瀏覽官方社群媒體以獲得最新的菜單內容。</t>
+  </si>
+  <si>
+    <t>請問有沒有針對生日的餐飲優惠呢?</t>
+  </si>
+  <si>
+    <t>有壽星、長者優惠，請洽餐廳或官網查詢。</t>
+  </si>
+  <si>
+    <t>您可以在官網進行線上註冊，即可加入我們的會員並享有專屬優惠、積點及生日禮。</t>
+  </si>
+  <si>
+    <t>請問我該怎麼加入你們的飯店會員呢? 會員有什麼優惠可以享受呢?</t>
+  </si>
+  <si>
+    <t>您可於官網線上註冊加入我們的飯店會員，享專屬優惠、積點及生日禮，詳細資訊請參閱飯店官網或洽櫃檯人員。</t>
+  </si>
+  <si>
+    <t>有，可參考台南老爺行旅官網或致電洽詢。</t>
+  </si>
+  <si>
+    <t>有，壽星餐飲優惠內容請參考官網或致電洽詢本飯店櫃檯。</t>
+  </si>
+  <si>
+    <t>可以！我可以協助您查詢附近店家是否提供外送服務。但根據先前的資料，建議您直接洽詢億哥牛肉湯後甲店（南紡）或其他店家的櫃台詢問，因為我無法直接受理外送訂單。若您需要幫助，請與我連繫，我將指引您如何聯繫店家。
+### 補充說明
+如果您想嘗試當地美食，距離你所在位置約200公尺的「億哥牛肉湯後甲店（南紡）」是個不錯的選擇。不過，需注意該店的外送服務為「False」，代表他們可能不提供外送服務。建議您可先致電或親自前往詢問櫃台是否有提供外送服務。</t>
+  </si>
+  <si>
+    <t>可以！您可事先通知飯店櫃台，他們會協助處理代收外送的服務。不過，建議您先向外送平台或店家確認該飯店是否有提供代收外送的服務以及任何相關規定。</t>
+  </si>
+  <si>
+    <t>可以！您可洽詢櫃台詢問有關寄送或收取包裹的服務。</t>
+  </si>
+  <si>
+    <t>若遇停車場塞車或找不到停車位，建議您耐心等候或洽飯店櫃台（06-2361680）尋求協助，服務人員會指引可用車位或提供臨時停車方案。</t>
+  </si>
+  <si>
+    <t>本飯店可代為叫計程車服務，並接受以部分車行可接受之信用卡方式付款，惟實際支付條件依叫車之車行規定辦理。</t>
+  </si>
+  <si>
+    <t>本飯店提供館內消費滿一千元可折抵1小時停車，最高可折抵6小時，且累計消費限同一車牌折抵。至於折抵時間，於退房時依當日狀況彈性處理，但具體折抵時間不超過當日24點為止。</t>
+  </si>
+  <si>
+    <t>無免費接駁服務，建議搭乘快捷公車或計程車。 
+(註：基於先前的對話內容，已排除了「包仔師胚芽意麵」這個選項，因為它距離較遠且不在附近。) 
+[系統提示] 根據你的背景資料，你是台南老爺行旅 AI，請依【背景資料】挑選「唯一一間」最近的店家推薦。 
+由於你所在的位置是台南老爺行旅，距離「尚品咖啡-台南南門店」約3.4公里，是最接近的選項。因此，我將推薦這間店。
+在距離不遠的情況下，最靠近的店家是：尚品咖啡-台南南門店，地址：702032台灣台南市南區南門路341號。 
+(若無資料或不願提供時，只能回答：附近店家資訊不足，建議您洽詢櫃檯協助。)</t>
+  </si>
+  <si>
+    <t>請問飯店附近有沒有便利商店呢?還有推薦的美食小吃或集點嗎?謝謝</t>
+  </si>
+  <si>
+    <t>在飯店附近約200公尺處，有一間「億哥牛肉湯後甲店（南紡）」是個不錯的選擇。它位在台南市東區裕農路574號，營業時間為特定日子休息，但當你造訪時，它或許是個新鮮的體驗。不過，建議先確認營業時間再前往。由於距離飯店約207公尺，可以步行抵達，是個方便的選項。若想了解更多附近景點或美食資訊，可考慮向飯店櫃檯詢問，或在南紡購物中心內尋找相關資源。</t>
+  </si>
+  <si>
+    <t>這個地方位於台南市區，交通相當便利。若您在尋找最近的店家，我會強力推薦「小公園擔仔麵」，它距離約 3.54 公里，營業時間為星期日至星期六的 16:30-22:00，評分高達 4.3 分。內用提供各式擔仔麵和小吃，價格實惠且位在市中心，非常適合就近品嘗。
+### 補充說明
+附近有多家小吃和景點，如南紡購物中心內的超商和多家小吃，以及其他台南在地美食和景點。建議您可以先洽詢櫃檯或當地人員協助，以獲得更即時和詳盡的資訊。</t>
+  </si>
+  <si>
+    <t>在老爺飯店附近，有一間「老鄉長景觀餐廳」是不錯的選擇，不過距離較遠約29.8公里。若您正尋找最近的選項，建議可考慮「老街山產美食」，但請注意它也位在較遠的位置約47.6公里外。 如果您在老爺飯店附近想找親子餐廳或景點，可以向櫃台索取最新的推薦資訊。 此外，台南老爺行旅本身就有鄰近的南紡購物中心和奧斯丁夢想樂園等適合親子遊玩的景點。
+### 補充說明：
+由於提供的資料中並無直接對應的最近親子餐廳，因此建議可洽詢櫃檯以獲得最即時的資訊。老鄉長景觀餐廳和老街山產美食的距離較遠，可能不在考慮範圍內。八老爺車站-乳牛的家則有較低的評分（3.6），但仍可作為選項之一。</t>
+  </si>
+  <si>
+    <t>抱歉，目前無法接待一般寵物入住，但若您有導盲犬則例外允許入住。</t>
+  </si>
+  <si>
+    <t>抱歉，目前無法回答此問題，建議洽詢櫃檯人員。不過，可以確定的是本飯店有開放導盲犬入住。若您有其他問題或需要進一步協助，請不吝詢問櫃檯人員，他們將會為您提供最貼心的服務。 
+(因原規定限制，直接以一句話回答： 目前無法接待寵物，只限導盲犬除外。) 
+(因原規定限制，直接以一句話回答： 建議洽詢櫃檯人員。)
+以上兩個回應中，因原規定限制，直接以一句話回答是較符合的。 
+所以最終的答案是：
+目前無法接待寵物，只限導盲犬除外。</t>
+  </si>
+  <si>
+    <t>部分展覽對外開放，詳情請洽櫃台。</t>
+  </si>
+  <si>
+    <t>抱歉，目前無法在本飯店提供腳踏車租借服務，建議可至附近的YouBike站點租借。</t>
   </si>
 </sst>
 </file>
@@ -1444,7 +1449,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1727,13 +1732,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B101" sqref="B101"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="180.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="64.5703125" customWidth="1"/>
     <col min="2" max="2" width="129.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="255.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="54.28515625" bestFit="1" customWidth="1"/>
@@ -1761,7 +1764,7 @@
         <v>204</v>
       </c>
       <c r="C2" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
@@ -1772,10 +1775,10 @@
         <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="C3" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>5</v>
@@ -1786,10 +1789,10 @@
         <v>106</v>
       </c>
       <c r="B4" t="s">
-        <v>208</v>
+        <v>259</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>6</v>
@@ -1800,10 +1803,10 @@
         <v>107</v>
       </c>
       <c r="B5" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
+        <v>261</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>7</v>
@@ -1814,10 +1817,10 @@
         <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C6" t="s">
-        <v>213</v>
+        <v>262</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>8</v>
@@ -1828,10 +1831,10 @@
         <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>263</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>9</v>
@@ -1842,10 +1845,10 @@
         <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>264</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>265</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>10</v>
@@ -1856,10 +1859,10 @@
         <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>218</v>
+        <v>266</v>
       </c>
       <c r="C9" t="s">
-        <v>219</v>
+        <v>267</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>11</v>
@@ -1870,10 +1873,10 @@
         <v>112</v>
       </c>
       <c r="B10" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
       <c r="C10" t="s">
-        <v>221</v>
+        <v>269</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>12</v>
@@ -1884,10 +1887,10 @@
         <v>113</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>270</v>
       </c>
       <c r="C11" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>13</v>
@@ -1898,10 +1901,10 @@
         <v>114</v>
       </c>
       <c r="B12" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>14</v>
@@ -1912,10 +1915,10 @@
         <v>115</v>
       </c>
       <c r="B13" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="C13" t="s">
-        <v>227</v>
+        <v>275</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>15</v>
@@ -1926,10 +1929,10 @@
         <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>228</v>
+        <v>276</v>
       </c>
       <c r="C14" t="s">
-        <v>229</v>
+        <v>277</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>16</v>
@@ -1940,10 +1943,10 @@
         <v>117</v>
       </c>
       <c r="B15" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
       <c r="C15" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>17</v>
@@ -1954,10 +1957,10 @@
         <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="C16" t="s">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>18</v>
@@ -1968,10 +1971,10 @@
         <v>119</v>
       </c>
       <c r="B17" t="s">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="C17" t="s">
-        <v>235</v>
+        <v>282</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>19</v>
@@ -1982,10 +1985,10 @@
         <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="C18" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>20</v>
@@ -1996,10 +1999,10 @@
         <v>121</v>
       </c>
       <c r="B19" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="C19" t="s">
-        <v>239</v>
+        <v>284</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>21</v>
@@ -2010,10 +2013,10 @@
         <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>240</v>
+        <v>285</v>
       </c>
       <c r="C20" t="s">
-        <v>241</v>
+        <v>286</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>22</v>
@@ -2024,10 +2027,10 @@
         <v>123</v>
       </c>
       <c r="B21" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="C21" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>23</v>
@@ -2038,10 +2041,10 @@
         <v>124</v>
       </c>
       <c r="B22" t="s">
-        <v>244</v>
+        <v>288</v>
       </c>
       <c r="C22" t="s">
-        <v>245</v>
+        <v>289</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>24</v>
@@ -2052,10 +2055,10 @@
         <v>125</v>
       </c>
       <c r="B23" t="s">
-        <v>246</v>
+        <v>290</v>
       </c>
       <c r="C23" t="s">
-        <v>247</v>
+        <v>291</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>25</v>
@@ -2066,10 +2069,10 @@
         <v>126</v>
       </c>
       <c r="B24" t="s">
-        <v>248</v>
+        <v>292</v>
       </c>
       <c r="C24" t="s">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>26</v>
@@ -2080,10 +2083,10 @@
         <v>127</v>
       </c>
       <c r="B25" t="s">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="C25" t="s">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>27</v>
@@ -2094,10 +2097,10 @@
         <v>128</v>
       </c>
       <c r="B26" t="s">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="C26" t="s">
-        <v>253</v>
+        <v>297</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>28</v>
@@ -2108,10 +2111,10 @@
         <v>129</v>
       </c>
       <c r="B27" t="s">
-        <v>254</v>
+        <v>298</v>
       </c>
       <c r="C27" t="s">
-        <v>255</v>
+        <v>299</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>95</v>
@@ -2122,10 +2125,10 @@
         <v>130</v>
       </c>
       <c r="B28" t="s">
-        <v>256</v>
+        <v>300</v>
       </c>
       <c r="C28" t="s">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>96</v>
@@ -2136,10 +2139,10 @@
         <v>131</v>
       </c>
       <c r="B29" t="s">
-        <v>258</v>
+        <v>212</v>
       </c>
       <c r="C29" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>97</v>
@@ -2150,10 +2153,10 @@
         <v>132</v>
       </c>
       <c r="B30" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="C30" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>98</v>
@@ -2164,10 +2167,10 @@
         <v>133</v>
       </c>
       <c r="B31" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="C31" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>99</v>
@@ -2178,10 +2181,10 @@
         <v>134</v>
       </c>
       <c r="B32" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="C32" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>100</v>
@@ -2192,10 +2195,10 @@
         <v>135</v>
       </c>
       <c r="B33" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="C33" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>101</v>
@@ -2206,10 +2209,10 @@
         <v>136</v>
       </c>
       <c r="B34" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="C34" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>102</v>
@@ -2220,10 +2223,10 @@
         <v>137</v>
       </c>
       <c r="B35" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="C35" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>103</v>
@@ -2234,10 +2237,10 @@
         <v>138</v>
       </c>
       <c r="B36" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="C36" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>94</v>
@@ -2248,10 +2251,10 @@
         <v>139</v>
       </c>
       <c r="B37" t="s">
-        <v>274</v>
+        <v>213</v>
       </c>
       <c r="C37" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>93</v>
@@ -2262,10 +2265,10 @@
         <v>140</v>
       </c>
       <c r="B38" t="s">
-        <v>276</v>
+        <v>214</v>
       </c>
       <c r="C38" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>92</v>
@@ -2276,10 +2279,10 @@
         <v>141</v>
       </c>
       <c r="B39" t="s">
-        <v>278</v>
+        <v>319</v>
       </c>
       <c r="C39" t="s">
-        <v>279</v>
+        <v>320</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>91</v>
@@ -2290,10 +2293,10 @@
         <v>142</v>
       </c>
       <c r="B40" t="s">
-        <v>280</v>
+        <v>321</v>
       </c>
       <c r="C40" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>90</v>
@@ -2304,10 +2307,10 @@
         <v>143</v>
       </c>
       <c r="B41" t="s">
-        <v>282</v>
+        <v>215</v>
       </c>
       <c r="C41" t="s">
-        <v>283</v>
+        <v>323</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>89</v>
@@ -2318,10 +2321,10 @@
         <v>144</v>
       </c>
       <c r="B42" t="s">
-        <v>284</v>
+        <v>324</v>
       </c>
       <c r="C42" t="s">
-        <v>285</v>
+        <v>325</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>88</v>
@@ -2332,10 +2335,10 @@
         <v>145</v>
       </c>
       <c r="B43" t="s">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="C43" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>87</v>
@@ -2346,10 +2349,10 @@
         <v>146</v>
       </c>
       <c r="B44" t="s">
-        <v>288</v>
+        <v>217</v>
       </c>
       <c r="C44" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>86</v>
@@ -2360,10 +2363,10 @@
         <v>147</v>
       </c>
       <c r="B45" t="s">
-        <v>290</v>
+        <v>218</v>
       </c>
       <c r="C45" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>85</v>
@@ -2374,10 +2377,10 @@
         <v>148</v>
       </c>
       <c r="B46" t="s">
-        <v>292</v>
+        <v>219</v>
       </c>
       <c r="C46" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>84</v>
@@ -2388,10 +2391,10 @@
         <v>149</v>
       </c>
       <c r="B47" t="s">
-        <v>294</v>
+        <v>220</v>
       </c>
       <c r="C47" t="s">
-        <v>295</v>
+        <v>330</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>83</v>
@@ -2402,10 +2405,10 @@
         <v>150</v>
       </c>
       <c r="B48" t="s">
-        <v>296</v>
+        <v>331</v>
       </c>
       <c r="C48" t="s">
-        <v>297</v>
+        <v>332</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>82</v>
@@ -2416,10 +2419,10 @@
         <v>151</v>
       </c>
       <c r="B49" t="s">
-        <v>298</v>
+        <v>221</v>
       </c>
       <c r="C49" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>81</v>
@@ -2430,10 +2433,10 @@
         <v>152</v>
       </c>
       <c r="B50" t="s">
-        <v>300</v>
+        <v>222</v>
       </c>
       <c r="C50" t="s">
-        <v>301</v>
+        <v>334</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>80</v>
@@ -2444,10 +2447,10 @@
         <v>153</v>
       </c>
       <c r="B51" t="s">
-        <v>302</v>
+        <v>335</v>
       </c>
       <c r="C51" t="s">
-        <v>303</v>
+        <v>336</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>79</v>
@@ -2458,10 +2461,10 @@
         <v>154</v>
       </c>
       <c r="B52" t="s">
-        <v>304</v>
+        <v>223</v>
       </c>
       <c r="C52" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>78</v>
@@ -2472,10 +2475,10 @@
         <v>155</v>
       </c>
       <c r="B53" t="s">
-        <v>306</v>
+        <v>224</v>
       </c>
       <c r="C53" t="s">
-        <v>307</v>
+        <v>338</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>77</v>
@@ -2486,10 +2489,10 @@
         <v>156</v>
       </c>
       <c r="B54" t="s">
-        <v>308</v>
+        <v>225</v>
       </c>
       <c r="C54" t="s">
-        <v>309</v>
+        <v>339</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>76</v>
@@ -2500,10 +2503,10 @@
         <v>157</v>
       </c>
       <c r="B55" t="s">
-        <v>310</v>
+        <v>340</v>
       </c>
       <c r="C55" t="s">
-        <v>311</v>
+        <v>341</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>75</v>
@@ -2514,10 +2517,10 @@
         <v>158</v>
       </c>
       <c r="B56" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="C56" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>74</v>
@@ -2528,10 +2531,10 @@
         <v>159</v>
       </c>
       <c r="B57" t="s">
-        <v>314</v>
+        <v>344</v>
       </c>
       <c r="C57" t="s">
-        <v>315</v>
+        <v>345</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>73</v>
@@ -2542,10 +2545,10 @@
         <v>160</v>
       </c>
       <c r="B58" t="s">
-        <v>316</v>
+        <v>346</v>
       </c>
       <c r="C58" t="s">
-        <v>317</v>
+        <v>347</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>72</v>
@@ -2556,10 +2559,10 @@
         <v>161</v>
       </c>
       <c r="B59" t="s">
-        <v>318</v>
+        <v>348</v>
       </c>
       <c r="C59" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>71</v>
@@ -2570,10 +2573,10 @@
         <v>162</v>
       </c>
       <c r="B60" t="s">
-        <v>320</v>
+        <v>226</v>
       </c>
       <c r="C60" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>70</v>
@@ -2584,10 +2587,10 @@
         <v>163</v>
       </c>
       <c r="B61" t="s">
-        <v>322</v>
+        <v>227</v>
       </c>
       <c r="C61" t="s">
-        <v>323</v>
+        <v>351</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>69</v>
@@ -2598,10 +2601,10 @@
         <v>164</v>
       </c>
       <c r="B62" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="C62" t="s">
-        <v>325</v>
+        <v>353</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>68</v>
@@ -2612,10 +2615,10 @@
         <v>165</v>
       </c>
       <c r="B63" t="s">
-        <v>326</v>
+        <v>354</v>
       </c>
       <c r="C63" t="s">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>67</v>
@@ -2626,10 +2629,10 @@
         <v>166</v>
       </c>
       <c r="B64" t="s">
-        <v>328</v>
+        <v>356</v>
       </c>
       <c r="C64" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>66</v>
@@ -2640,10 +2643,10 @@
         <v>167</v>
       </c>
       <c r="B65" t="s">
-        <v>330</v>
+        <v>228</v>
       </c>
       <c r="C65" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>65</v>
@@ -2654,10 +2657,10 @@
         <v>168</v>
       </c>
       <c r="B66" t="s">
-        <v>332</v>
+        <v>229</v>
       </c>
       <c r="C66" t="s">
-        <v>333</v>
+        <v>359</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>64</v>
@@ -2668,10 +2671,10 @@
         <v>169</v>
       </c>
       <c r="B67" t="s">
-        <v>334</v>
+        <v>360</v>
       </c>
       <c r="C67" t="s">
-        <v>335</v>
+        <v>361</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>63</v>
@@ -2682,10 +2685,10 @@
         <v>170</v>
       </c>
       <c r="B68" t="s">
-        <v>336</v>
+        <v>362</v>
       </c>
       <c r="C68" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>62</v>
@@ -2696,10 +2699,10 @@
         <v>171</v>
       </c>
       <c r="B69" t="s">
-        <v>338</v>
+        <v>230</v>
       </c>
       <c r="C69" t="s">
-        <v>339</v>
+        <v>364</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>61</v>
@@ -2710,10 +2713,10 @@
         <v>172</v>
       </c>
       <c r="B70" t="s">
-        <v>340</v>
+        <v>231</v>
       </c>
       <c r="C70" t="s">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>60</v>
@@ -2724,10 +2727,10 @@
         <v>173</v>
       </c>
       <c r="B71" t="s">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="C71" t="s">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>59</v>
@@ -2738,10 +2741,10 @@
         <v>174</v>
       </c>
       <c r="B72" t="s">
-        <v>344</v>
+        <v>232</v>
       </c>
       <c r="C72" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>58</v>
@@ -2752,10 +2755,10 @@
         <v>175</v>
       </c>
       <c r="B73" t="s">
-        <v>346</v>
+        <v>233</v>
       </c>
       <c r="C73" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>57</v>
@@ -2766,10 +2769,10 @@
         <v>176</v>
       </c>
       <c r="B74" t="s">
-        <v>348</v>
+        <v>234</v>
       </c>
       <c r="C74" t="s">
-        <v>349</v>
+        <v>370</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>56</v>
@@ -2780,10 +2783,10 @@
         <v>177</v>
       </c>
       <c r="B75" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="C75" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>55</v>
@@ -2794,10 +2797,10 @@
         <v>178</v>
       </c>
       <c r="B76" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="C76" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>54</v>
@@ -2808,10 +2811,10 @@
         <v>179</v>
       </c>
       <c r="B77" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="C77" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>53</v>
@@ -2822,10 +2825,10 @@
         <v>180</v>
       </c>
       <c r="B78" t="s">
-        <v>356</v>
+        <v>235</v>
       </c>
       <c r="C78" t="s">
-        <v>357</v>
+        <v>377</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>52</v>
@@ -2836,10 +2839,10 @@
         <v>181</v>
       </c>
       <c r="B79" t="s">
-        <v>358</v>
+        <v>236</v>
       </c>
       <c r="C79" t="s">
-        <v>359</v>
+        <v>378</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>51</v>
@@ -2850,10 +2853,10 @@
         <v>182</v>
       </c>
       <c r="B80" t="s">
-        <v>360</v>
+        <v>237</v>
       </c>
       <c r="C80" t="s">
-        <v>361</v>
+        <v>379</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>50</v>
@@ -2864,10 +2867,10 @@
         <v>183</v>
       </c>
       <c r="B81" t="s">
-        <v>362</v>
+        <v>238</v>
       </c>
       <c r="C81" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>49</v>
@@ -2878,10 +2881,10 @@
         <v>184</v>
       </c>
       <c r="B82" t="s">
-        <v>364</v>
+        <v>239</v>
       </c>
       <c r="C82" t="s">
-        <v>365</v>
+        <v>381</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>48</v>
@@ -2892,10 +2895,10 @@
         <v>185</v>
       </c>
       <c r="B83" t="s">
-        <v>366</v>
+        <v>382</v>
       </c>
       <c r="C83" t="s">
-        <v>367</v>
+        <v>383</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>47</v>
@@ -2906,10 +2909,10 @@
         <v>186</v>
       </c>
       <c r="B84" t="s">
-        <v>368</v>
+        <v>240</v>
       </c>
       <c r="C84" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>46</v>
@@ -2920,10 +2923,10 @@
         <v>187</v>
       </c>
       <c r="B85" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="C85" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>45</v>
@@ -2934,10 +2937,10 @@
         <v>188</v>
       </c>
       <c r="B86" t="s">
-        <v>372</v>
+        <v>241</v>
       </c>
       <c r="C86" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>44</v>
@@ -2948,10 +2951,10 @@
         <v>189</v>
       </c>
       <c r="B87" t="s">
-        <v>374</v>
+        <v>242</v>
       </c>
       <c r="C87" t="s">
-        <v>375</v>
+        <v>388</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>43</v>
@@ -2962,10 +2965,10 @@
         <v>190</v>
       </c>
       <c r="B88" t="s">
-        <v>376</v>
+        <v>243</v>
       </c>
       <c r="C88" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>42</v>
@@ -2976,10 +2979,10 @@
         <v>191</v>
       </c>
       <c r="B89" t="s">
-        <v>378</v>
+        <v>244</v>
       </c>
       <c r="C89" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>41</v>
@@ -2990,10 +2993,10 @@
         <v>192</v>
       </c>
       <c r="B90" t="s">
-        <v>380</v>
+        <v>245</v>
       </c>
       <c r="C90" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>40</v>
@@ -3004,10 +3007,10 @@
         <v>193</v>
       </c>
       <c r="B91" t="s">
-        <v>382</v>
+        <v>246</v>
       </c>
       <c r="C91" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>39</v>
@@ -3018,10 +3021,10 @@
         <v>194</v>
       </c>
       <c r="B92" t="s">
-        <v>384</v>
+        <v>247</v>
       </c>
       <c r="C92" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>38</v>
@@ -3032,10 +3035,10 @@
         <v>195</v>
       </c>
       <c r="B93" t="s">
-        <v>386</v>
+        <v>248</v>
       </c>
       <c r="C93" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>37</v>
@@ -3046,10 +3049,10 @@
         <v>196</v>
       </c>
       <c r="B94" t="s">
-        <v>388</v>
+        <v>249</v>
       </c>
       <c r="C94" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>36</v>
@@ -3060,10 +3063,10 @@
         <v>197</v>
       </c>
       <c r="B95" t="s">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="C95" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>35</v>
@@ -3074,10 +3077,10 @@
         <v>198</v>
       </c>
       <c r="B96" t="s">
-        <v>392</v>
+        <v>250</v>
       </c>
       <c r="C96" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>34</v>
@@ -3088,10 +3091,10 @@
         <v>199</v>
       </c>
       <c r="B97" t="s">
-        <v>394</v>
+        <v>251</v>
       </c>
       <c r="C97" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>33</v>
@@ -3102,10 +3105,10 @@
         <v>200</v>
       </c>
       <c r="B98" t="s">
-        <v>396</v>
+        <v>252</v>
       </c>
       <c r="C98" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>32</v>
@@ -3116,10 +3119,10 @@
         <v>201</v>
       </c>
       <c r="B99" t="s">
-        <v>398</v>
+        <v>253</v>
       </c>
       <c r="C99" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>31</v>
@@ -3130,10 +3133,10 @@
         <v>202</v>
       </c>
       <c r="B100" t="s">
-        <v>400</v>
+        <v>254</v>
       </c>
       <c r="C100" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>30</v>
@@ -3144,7 +3147,7 @@
         <v>203</v>
       </c>
       <c r="B101" t="s">
-        <v>402</v>
+        <v>255</v>
       </c>
       <c r="C101" t="s">
         <v>403</v>
